--- a/resdataTemp-5.xlsx
+++ b/resdataTemp-5.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,363 +445,423 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GTU-KU</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>533.4055660128</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>948.6294601883625</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>380.1542706358214</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.7803</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.1237</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.0301</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.0594</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.0065</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>REF-SMESH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>800</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1531.123730073688</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>50.48825192241195</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.710320591016015</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.00996710270335893</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.090538556815177</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.180531273012258</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.008642476453191781</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU-PEVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>567.7954990374102</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1016.92071314366</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-IVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>477.5419260801762</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>912.4105255585156</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IVD-EVD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>264.4181518973691</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>674.2929323208219</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EVD-PPND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>197.1016066640761</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>601.4620285456854</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PPND-IND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>196.2057397926773</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>600.4994202580459</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IND-GPK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>145.6595232025719</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>546.4393479406064</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-out</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>90.87297581684469</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>488.3326027709384</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AIR-REF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>15</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>288.39</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>47.85827057300812</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CH4-REF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>15</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>881.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2.629981349403867</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -814,7 +874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,148 +883,213 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Ni</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPDm</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.6683824848061958</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.6955646847643518</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.9609206727231056</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.8074</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CND</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>165.66</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>34.06106458434684</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>6.30138102032644</v>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Turbine</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>74.13036635680587</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Tots1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>34.26212233755122</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>0.8493003477725191</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tots2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>9.208010334768872</v>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>0.8372061515151766</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Tots3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>5.431083419410669</v>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>0.8149530090954357</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Tots4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>25.22915026507511</v>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>0.8432587895600062</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.1095006222696853</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1129172363623383</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.9697423156754432</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.4788342961563501</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_comp</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>320657.5144736655</v>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_turb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>482335.5064795458</v>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -977,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,170 +1111,255 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Qg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEVD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41971.58058289427</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>42395.53594231745</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>90912.58250653204</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>91830.89142073944</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>39735.77849029278</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>40137.14999019473</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>515.8858252133183</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>521.0967931447659</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>33090.25166230425</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>33424.49662859015</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GPK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>39205.52442382372</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>39601.53982204416</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SP2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SP1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>OD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Strans</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Strans_cool</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Reformer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Ref_cooler</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ref_HTS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>HTS_cooler</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>80155.60353792975</v>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ref_all</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_Qsw</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>252987.3479393725</v>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1162,7 +1372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,35 +1381,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PKM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>486855627.0844427</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1214,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,612 +1443,784 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-DROSVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>504.9319041583734</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>7.987274383792103</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3411.83913988873</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IVD-PEVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>298.0030887624895</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>8.34889903318437</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2753.38869593236</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EVD-IVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>296.8418922619991</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>8.34889903318437</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1327.276424228535</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEN-EVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>165.5456666351681</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>8.34889903318437</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>703.9638238106493</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BND-PEN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>164.1381553733542</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>693.4792966097505</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPND-DROSND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>177.4902052928896</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.6798886425314981</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2794.841067224075</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>15.66116174443299</v>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IND-PPND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>164.1381552383182</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>2761.903209743645</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>15.66116174443299</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GPK-IND</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>162.1259325185634</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>684.736201144957</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>79.41057762165987</v>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-REC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>162.1259325185634</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>684.736201144957</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>90.54467573302709</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>REC-GPK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>60</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>251.7397354762377</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>90.55035693718604</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SMESH-GPK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>45.46966079702622</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>190.9976513050555</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SMESHOD-REC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>45.46966079702622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>190.9976513050555</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SP1-OD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>93.7216950080699</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.08070456199572931</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>392.7048909796932</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>13.81183186685591</v>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OD-GPK</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>56.62377368835524</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.08070437942603802</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>237.1042649274721</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>13.81154287927535</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-TURB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>47.9</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>192.602</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-OD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>47.9</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>192.602</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>19.30462160750245</v>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>OD-SP1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>74.22229546723574</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>310.7687511213161</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>19.30462160750245</v>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>OTB2-SP2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>151.8975266465858</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>0.1121699616063787</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2779.491564060246</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>2.096530830956176</v>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>SP2-SP1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>101.3921689457977</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>0.1065614635260598</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>425.0400711135778</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>2.096530830956176</v>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SP1-SP2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>93.70639252642272</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>392.3486655081319</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SP2-WOUT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>101.32248521</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>424.23724557427</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WIN-SP1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>51.21584361047483</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>202.3831279625776</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>OTB1-SP1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>129.7551579006815</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>0.08495217052182033</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>2737.62545015658</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>11.71527745547391</v>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-TURBVD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>502.0905738504395</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>7.39375365046333</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>3411.83913988873</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>59.94858344580796</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6.776698768053326</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ENDOFVD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>193.4504525675076</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>0.526085991193024</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>2840.314003376983</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>59.94858344580796</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>7.005175846892578</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DROSND-TURBND</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>174.9889990587478</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>0.5958878397651558</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>2794.841067224075</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>15.66116174443299</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>6.850247098185921</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SMESHEND</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>189.129402251712</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>0.526085991193024</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>2830.895124814529</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>6.984895524198227</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>126.6694224257371</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>0.2444209892226888</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2709.111744754186</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>7.044123885301688</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>99.70966723301447</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>110.7506107154498</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>0.1470315561254752</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>2637.281276264369</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>7.08660925048975</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>97.5346389152145</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>INCND</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>110.7506107154498</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>0.1470315561254752</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>2637.281276264369</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>7.08660925048975</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>97.5346389152145</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>INKOND</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>45.26660695623588</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>0.009727318443123779</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>2303.605369784374</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>7.281392433454172</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>88.33040580125521</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>KOND-KN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>45.26660695482678</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>0.009727318443123779</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>189.5494170596659</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>KN-GPK</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>45.46966079702622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>190.9976513050555</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>SP2-ASW</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -1839,12 +2231,17 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ASW-WOUT</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1855,88 +2252,116 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SWIN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>47.9</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>201.4175119987327</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>750</v>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>SWOUT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>101.32248521</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>425.4147397933335</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>750</v>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ST-PKM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>525.7397354713804</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>2</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>3525.131045060758</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>38.57370646409867</v>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ST-GPK</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>80</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>2</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>336.57</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-ST</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>540.7397354713804</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>3.676391612836293</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>3542.305723105836</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>41.07209367474709</v>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1949,7 +2374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,423 +2383,472 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CH4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>REF-COOL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>700</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3687.984095444761</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>COOL-HTS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>450</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3030.242194144161</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HTS-HTSCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>275</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2555.053440566289</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HTSCOOL-Separ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>100</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>791.1357141934237</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Separ-SGaccum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>100</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1348.041621038311</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>18.07474574269994</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1686684666338336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.05094889585944173</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SGaccum-Separacc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1331.021263486354</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>365775.9950500099</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.168738364456343</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.0503573198627571</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.0975081144748292</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.681387369772999</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.00200883143307171</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Separacc-Sepout</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1322.279758018715</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>362333.6697052593</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1697418120559119</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.04471001688632922</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.09808797243258231</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.6854394211412709</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.002020777483905787</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-COMB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1322.279758018715</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>24.08094928508745</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1697418120559119</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.04471001688632922</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.09808797243258231</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.6854394211412709</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.002020777483905787</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-GTU</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1322.279758018715</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.081111111111111</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1697418120559119</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.04471001688632922</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.09808797243258231</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.6854394211412709</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.002020777483905787</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AIR-COMP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>293.1871693088577</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>947.8135240630417</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2382,21 +2856,26 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>COMP-COMB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>343.3557890055408</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>1.2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>631.5000402827663</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>947.8135240630417</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2404,118 +2883,134 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>COMB-TURB</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>750</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>1.2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1190.276118433534</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>971.8944770032679</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.7479613035403302</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.1675820382280998</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.01688966656712013</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.009589247481286286</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.05797774418316339</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TURB-COOL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>315.5137564416856</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>693.9922955572322</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>971.8944770032679</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.7479613035403302</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.1675820382280998</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.01688966656712013</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.009589247481286286</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.05797774418316339</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>COOL-EX</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>70</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>433.6889869928788</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>971.8944770032679</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.7479613035403302</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.1675820382280998</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.01688966656712013</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.009589247481286286</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.05797774418316339</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2530,7 +3025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,148 +3034,213 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Ni</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPDm</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.6683824848061958</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.6955646847643518</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.9609206727231056</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.8074</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CVD</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CND</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>165.66</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>34.06106458434684</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>6.30138102032644</v>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Turbine</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>74.13036635680587</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Tots1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>34.26212233755122</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>0.8493003477725191</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tots2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>9.208010334768872</v>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>0.8372061515151766</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Tots3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>5.431083419410669</v>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>0.8149530090954357</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Tots4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>25.22915026507511</v>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>0.8432587895600062</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.1095006222696853</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1129172363623383</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.9697423156754432</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.4788342961563501</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_comp</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>320657.5144736655</v>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_turb</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>482335.5064795458</v>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2693,7 +3253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2702,170 +3262,255 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Qg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>KPD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>PEVD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41971.58058289427</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>42395.53594231745</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>90912.58250653204</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>91830.89142073944</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>EVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>39735.77849029278</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>40137.14999019473</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PPND</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>515.8858252133183</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>521.0967931447659</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>33090.25166230425</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>33424.49662859015</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GPK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>39205.52442382372</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>39601.53982204416</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.99</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SP2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>SP1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>OD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Strans</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Strans_cool</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Reformer</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Ref_cooler</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Ref_HTS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>HTS_cooler</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>80155.60353792975</v>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ref_all</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SGgtu_Qsw</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>252987.3479393725</v>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2878,7 +3523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2887,35 +3532,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Qw</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ASW</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PKM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>486855627.0844427</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -2930,7 +3585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2939,363 +3594,423 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GTU-KU</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>533.4055660128</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>948.6294601883625</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>380.1542706358214</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.7803</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.1237</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.0301</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.0594</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.0065</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>REF-SMESH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>800</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1531.123730073688</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>50.48825192241195</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.710320591016015</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.00996710270335893</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.090538556815177</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.180531273012258</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.008642476453191781</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GTU-PEVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>567.7954990374102</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1016.92071314366</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-IVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>477.5419260801762</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>912.4105255585156</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IVD-EVD</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>264.4181518973691</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>674.2929323208219</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EVD-PPND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>197.1016066640761</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>601.4620285456854</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>PPND-IND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>196.2057397926773</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>600.4994202580459</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>IND-GPK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>145.6595232025719</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>546.4393479406064</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-out</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>90.87297581684469</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>488.3326027709384</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>430.6425225582334</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.7719211116485178</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.1100823478623945</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.03733652753047636</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.07390348648521557</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.006756526473395644</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AIR-REF</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>15</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>288.39</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>47.85827057300812</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CH4-REF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>15</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>881.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>2.629981349403867</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3308,7 +4023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,612 +4032,784 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PEVD-DROSVD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>504.9319041583734</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>7.987274383792103</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3411.83913988873</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IVD-PEVD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>298.0030887624895</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>8.34889903318437</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2753.38869593236</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>EVD-IVD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>296.8418922619991</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>8.34889903318437</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1327.276424228535</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEN-EVD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>165.5456666351681</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>8.34889903318437</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>703.9638238106493</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BND-PEN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>164.1381553733542</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>693.4792966097505</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>63.74941587722688</v>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPND-DROSND</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>177.4902052928896</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.6798886425314981</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2794.841067224075</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>15.66116174443299</v>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IND-PPND</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>164.1381552383182</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>2761.903209743645</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>15.66116174443299</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GPK-IND</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>162.1259325185634</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>684.736201144957</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>79.41057762165987</v>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPK-REC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>162.1259325185634</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>684.736201144957</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>90.54467573302709</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>REC-GPK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>60</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.6860860792947268</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>251.7397354762377</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>90.55035693718604</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SMESH-GPK</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>45.46966079702622</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>190.9976513050555</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SMESHOD-REC</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>45.46966079702622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>190.9976513050555</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SP1-OD</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>93.7216950080699</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.08070456199572931</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>392.7048909796932</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>13.81183186685591</v>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OD-GPK</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>56.62377368835524</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.08070437942603802</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>237.1042649274721</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>13.81154287927535</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-TURB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>47.9</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>192.602</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SWIN-OD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>47.9</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>192.602</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>19.30462160750245</v>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>OD-SP1</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>74.22229546723574</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>310.7687511213161</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>19.30462160750245</v>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>OTB2-SP2</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>151.8975266465858</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>0.1121699616063787</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2779.491564060246</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>2.096530830956176</v>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>SP2-SP1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>101.3921689457977</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>0.1065614635260598</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>425.0400711135778</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>2.096530830956176</v>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SP1-SP2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>93.70639252642272</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>392.3486655081319</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>SP2-WOUT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>101.32248521</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>424.23724557427</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>WIN-SP1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>51.21584361047483</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>202.3831279625776</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>153.246658627274</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>OTB1-SP1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>129.7551579006815</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>0.08495217052182033</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>2737.62545015658</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>11.71527745547391</v>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-TURBVD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>502.0905738504395</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>7.39375365046333</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>3411.83913988873</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>59.94858344580796</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>6.776698768053326</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ENDOFVD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>193.4504525675076</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>0.526085991193024</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>2840.314003376983</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>59.94858344580796</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>7.005175846892578</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DROSND-TURBND</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>174.9889990587478</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>0.5958878397651558</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>2794.841067224075</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>15.66116174443299</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>6.850247098185921</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SMESHEND</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>189.129402251712</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>0.526085991193024</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>2830.895124814529</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>6.984895524198227</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>126.6694224257371</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>0.2444209892226888</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2709.111744754186</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>7.044123885301688</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>99.70966723301447</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DOOTB1</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>110.7506107154498</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>0.1470315561254752</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>2637.281276264369</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>7.08660925048975</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>97.5346389152145</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>INCND</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>110.7506107154498</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>0.1470315561254752</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>2637.281276264369</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>7.08660925048975</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>97.5346389152145</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>INKOND</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>45.26660695623588</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>0.009727318443123779</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>2303.605369784374</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>7.281392433454172</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>88.33040580125521</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>KOND-KN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>45.26660695482678</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>0.009727318443123779</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>189.5494170596659</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>KN-GPK</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
         <v>45.46966079702622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>0.6964</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>190.9976513050555</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>75.60974519024094</v>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>SP2-ASW</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -3933,12 +4820,17 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ASW-WOUT</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -3949,88 +4841,116 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SWIN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>47.9</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>201.4175119987327</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>750</v>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>SWOUT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>101.32248521</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>425.4147397933335</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>750</v>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ST-PKM</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>525.7397354713804</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>2</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>3525.131045060758</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>38.57370646409867</v>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>ST-GPK</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>80</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>2</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>336.57</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DROSVD-ST</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>540.7397354713804</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>3.676391612836293</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>3542.305723105836</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>41.07209367474709</v>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4043,7 +4963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4052,423 +4972,472 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>CH4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>REF-COOL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>700</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>3687.984095444761</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>COOL-HTS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>450</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>3030.242194144161</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.06356000000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.53662</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.05004</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.3259</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.02388</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HTS-HTSCOOL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>275</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2555.053440566289</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HTSCOOL-Separ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>100</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>791.1357141934237</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>45.44180396823456</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.0864149892361543</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.513766606256586</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.0500421238434872</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.348747199710724</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.00102908095304842</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Separ-SGaccum</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>100</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1348.041621038311</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>18.07474574269994</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.1686684666338336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.05094889585944173</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SGaccum-Separacc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1331.021263486354</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>365775.9950500099</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.168738364456343</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.0503573198627571</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.0975081144748292</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.681387369772999</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.00200883143307171</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Separacc-Sepout</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1322.279758018715</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>362333.6697052593</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1697418120559119</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.04471001688632922</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.09808797243258231</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.6854394211412709</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.002020777483905787</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-COMB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1322.279758018715</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>24.08094928508745</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.1697418120559119</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.04471001688632922</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.09808797243258231</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.6854394211412709</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.002020777483905787</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sepout-GTU</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>95.76137602385535</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1322.279758018715</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.081111111111111</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.1697418120559119</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.04471001688632922</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.09808797243258231</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.6854394211412709</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.002020777483905787</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AIR-COMP</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>15</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>293.1871693088577</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>947.8135240630417</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -4476,21 +5445,26 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>COMP-COMB</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>343.3557890055408</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>1.2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>631.5000402827663</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>947.8135240630417</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -4498,118 +5472,134 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>COMB-TURB</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>750</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>1.2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1190.276118433534</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>971.8944770032679</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.7479613035403302</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.1675820382280998</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.01688966656712013</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.009589247481286286</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.05797774418316339</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TURB-COOL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>315.5137564416856</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.1</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>693.9922955572322</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>971.8944770032679</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.7479613035403302</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.1675820382280998</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.01688966656712013</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.009589247481286286</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.05797774418316339</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>COOL-EX</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>70</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>433.6889869928788</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>971.8944770032679</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.7479613035403302</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.1675820382280998</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.01688966656712013</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.009589247481286286</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.05797774418316339</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/resdataTemp-5.xlsx
+++ b/resdataTemp-5.xlsx
@@ -525,7 +525,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>380.1542706358214</v>
+        <v>381.8801384631674</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.48825192241195</v>
+        <v>50.49889480584679</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>567.7954990374102</v>
+        <v>567.6663312286794</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1016.92071314366</v>
+        <v>1016.660781313146</v>
       </c>
       <c r="E5" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.5419260801762</v>
+        <v>477.5305563545095</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>912.4105255585156</v>
+        <v>912.2923923102686</v>
       </c>
       <c r="E6" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.4181518973691</v>
+        <v>264.7597303867482</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>674.2929323208219</v>
+        <v>674.5680850398254</v>
       </c>
       <c r="E7" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197.1016066640761</v>
+        <v>197.3177390945166</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>601.4620285456854</v>
+        <v>601.5995467592049</v>
       </c>
       <c r="E8" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.2057397926773</v>
+        <v>196.4218374043966</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>600.4994202580459</v>
+        <v>600.6368913766937</v>
       </c>
       <c r="E9" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.6595232025719</v>
+        <v>145.8635411879638</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.4393479406064</v>
+        <v>546.5635537278122</v>
       </c>
       <c r="E10" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.87297581684469</v>
+        <v>90.95660008461483</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>488.3326027709384</v>
+        <v>488.3296076304499</v>
       </c>
       <c r="E11" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.85827057300812</v>
+        <v>47.86835905846181</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.629981349403867</v>
+        <v>2.630535747385016</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6683824848061958</v>
+        <v>0.6700296794929513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6955646847643518</v>
+        <v>0.6967092927235693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9609206727231056</v>
+        <v>0.9617062474847691</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.13036635680587</v>
+        <v>74.33804463369279</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.26212233755122</v>
+        <v>34.37169407162231</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493003477725191</v>
+        <v>0.8493021569453083</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.208010334768872</v>
+        <v>9.231299632396341</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372061515151766</v>
+        <v>0.8372059564035309</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.431083419410669</v>
+        <v>5.446552902827088</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149530090954357</v>
+        <v>0.8149530978647122</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.22915026507511</v>
+        <v>25.28849802684705</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8432587895600062</v>
+        <v>0.8428977213372143</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1095006222696853</v>
+        <v>0.1046028822511211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1129172363623383</v>
+        <v>0.1078190489242853</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9697423156754432</v>
+        <v>0.9701707007690016</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4788342961563501</v>
+        <v>0.5026521156999308</v>
       </c>
     </row>
     <row r="13">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41971.58058289427</v>
+        <v>41965.37028715674</v>
       </c>
       <c r="C2" t="n">
-        <v>42395.53594231745</v>
+        <v>42389.26291631994</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90912.58250653204</v>
+        <v>90824.3483786923</v>
       </c>
       <c r="C3" t="n">
-        <v>91830.89142073944</v>
+        <v>91741.76603908313</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39735.77849029278</v>
+        <v>39760.32070208505</v>
       </c>
       <c r="C4" t="n">
-        <v>40137.14999019473</v>
+        <v>40161.94010311621</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.8858252133183</v>
+        <v>515.940031732153</v>
       </c>
       <c r="C5" t="n">
-        <v>521.0967931447659</v>
+        <v>521.1515472041949</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33090.25166230425</v>
+        <v>33108.56025738989</v>
       </c>
       <c r="C6" t="n">
-        <v>33424.49662859015</v>
+        <v>33442.99015897969</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39205.52442382372</v>
+        <v>39226.80566991707</v>
       </c>
       <c r="C7" t="n">
-        <v>39601.53982204416</v>
+        <v>39623.03603021926</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.60353792975</v>
+        <v>80155.8095845583</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.9319041583734</v>
+        <v>504.8925558733858</v>
       </c>
       <c r="C3" t="n">
-        <v>7.987274383792103</v>
+        <v>8.008990376510894</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.83913988873</v>
+        <v>3411.485446823498</v>
       </c>
       <c r="E3" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.0030887624895</v>
+        <v>298.1779487324409</v>
       </c>
       <c r="C4" t="n">
-        <v>8.34889903318437</v>
+        <v>8.369621167870241</v>
       </c>
       <c r="D4" t="n">
-        <v>2753.38869593236</v>
+        <v>2753.067505198569</v>
       </c>
       <c r="E4" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.8418922619991</v>
+        <v>297.0015416788228</v>
       </c>
       <c r="C5" t="n">
-        <v>8.34889903318437</v>
+        <v>8.369621167870241</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.276424228535</v>
+        <v>1328.157029372179</v>
       </c>
       <c r="E5" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.5456666351681</v>
+        <v>165.6380720218726</v>
       </c>
       <c r="C6" t="n">
-        <v>8.34889903318437</v>
+        <v>8.369621167870241</v>
       </c>
       <c r="D6" t="n">
-        <v>703.9638238106493</v>
+        <v>704.3753904914072</v>
       </c>
       <c r="E6" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.1381553733542</v>
+        <v>164.2263398026629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D7" t="n">
-        <v>693.4792966097505</v>
+        <v>693.8636129668557</v>
       </c>
       <c r="E7" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.4902052928896</v>
+        <v>177.5650192066274</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6798886425314981</v>
+        <v>0.6814049960122142</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.841067224075</v>
+        <v>2794.912445337011</v>
       </c>
       <c r="E8" t="n">
-        <v>15.66116174443299</v>
+        <v>15.67481049356551</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.1381552383182</v>
+        <v>164.2263396674413</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.903209743645</v>
+        <v>2761.99627893044</v>
       </c>
       <c r="E9" t="n">
-        <v>15.66116174443299</v>
+        <v>15.67481049356551</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.1259325185634</v>
+        <v>162.221178211779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D10" t="n">
-        <v>684.736201144957</v>
+        <v>685.1506166474048</v>
       </c>
       <c r="E10" t="n">
-        <v>79.41057762165987</v>
+        <v>79.41566478086565</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.1259325185634</v>
+        <v>162.221178211779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D11" t="n">
-        <v>684.736201144957</v>
+        <v>685.1506166474048</v>
       </c>
       <c r="E11" t="n">
-        <v>90.54467573302709</v>
+        <v>90.50746582052514</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7397354762377</v>
+        <v>251.7410014521998</v>
       </c>
       <c r="E12" t="n">
-        <v>90.55035693718604</v>
+        <v>90.51359119166814</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.46966079702622</v>
+        <v>45.51199207402885</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>190.9976513050555</v>
+        <v>191.1745466419049</v>
       </c>
       <c r="E13" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.46966079702622</v>
+        <v>45.51199207402885</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>190.9976513050555</v>
+        <v>191.1745466419049</v>
       </c>
       <c r="E14" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.7216950080699</v>
+        <v>93.59906622820944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08070456199572931</v>
+        <v>0.08033806681650087</v>
       </c>
       <c r="D15" t="n">
-        <v>392.7048909796932</v>
+        <v>392.1884859073539</v>
       </c>
       <c r="E15" t="n">
-        <v>13.81183186685591</v>
+        <v>13.78291882817883</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.62377368835524</v>
+        <v>56.60799648344687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08070437942603802</v>
+        <v>0.08033789741208011</v>
       </c>
       <c r="D16" t="n">
-        <v>237.1042649274721</v>
+        <v>237.0379487560054</v>
       </c>
       <c r="E16" t="n">
-        <v>13.81154287927535</v>
+        <v>13.78260926855079</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.30462160750245</v>
+        <v>19.25181954719377</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.22229546723574</v>
+        <v>74.16301065049323</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>310.7687511213161</v>
+        <v>310.5205255936152</v>
       </c>
       <c r="E19" t="n">
-        <v>19.30462160750245</v>
+        <v>19.25181954719377</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.8975266465858</v>
+        <v>151.2740127555864</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1121699616063787</v>
+        <v>0.1121700420968444</v>
       </c>
       <c r="D20" t="n">
-        <v>2779.491564060246</v>
+        <v>2778.248607553233</v>
       </c>
       <c r="E20" t="n">
-        <v>2.096530830956176</v>
+        <v>2.125463677301222</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.3921689457977</v>
+        <v>101.3921892240748</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1065614635260598</v>
+        <v>0.1065615399920021</v>
       </c>
       <c r="D21" t="n">
-        <v>425.0400711135778</v>
+        <v>425.0401566902394</v>
       </c>
       <c r="E21" t="n">
-        <v>2.096530830956176</v>
+        <v>2.125463677301222</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.70639252642272</v>
+        <v>93.58419848006122</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>392.3486655081319</v>
+        <v>391.8370390360163</v>
       </c>
       <c r="E22" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.21584361047483</v>
+        <v>51.20837544794172</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.7551579006815</v>
+        <v>128.7922320651679</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08495217052182033</v>
+        <v>0.08456638612263249</v>
       </c>
       <c r="D25" t="n">
-        <v>2737.62545015658</v>
+        <v>2735.746514061444</v>
       </c>
       <c r="E25" t="n">
-        <v>11.71527745547391</v>
+        <v>11.65743835217266</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.0905738504395</v>
+        <v>502.0592445282808</v>
       </c>
       <c r="C26" t="n">
-        <v>7.39375365046333</v>
+        <v>7.417275635864874</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.83913988873</v>
+        <v>3411.485446823498</v>
       </c>
       <c r="E26" t="n">
-        <v>59.94858344580796</v>
+        <v>60.1471198479101</v>
       </c>
       <c r="F26" t="n">
-        <v>6.776698768053326</v>
+        <v>6.774861593455926</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.4504525675076</v>
+        <v>193.353985785737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.526085991193024</v>
+        <v>0.5275188412189237</v>
       </c>
       <c r="D27" t="n">
-        <v>2840.314003376983</v>
+        <v>2840.025098289177</v>
       </c>
       <c r="E27" t="n">
-        <v>59.94858344580796</v>
+        <v>60.1471198479101</v>
       </c>
       <c r="F27" t="n">
-        <v>7.005175846892578</v>
+        <v>7.003339161818948</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.9889990587478</v>
+        <v>175.066709184613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5958878397651558</v>
+        <v>0.597442407844875</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.841067224075</v>
+        <v>2794.912445337011</v>
       </c>
       <c r="E28" t="n">
-        <v>15.66116174443299</v>
+        <v>15.67481049356551</v>
       </c>
       <c r="F28" t="n">
-        <v>6.850247098185921</v>
+        <v>6.849253810333533</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.129402251712</v>
+        <v>189.0774715752917</v>
       </c>
       <c r="C29" t="n">
-        <v>0.526085991193024</v>
+        <v>0.5275188412189237</v>
       </c>
       <c r="D29" t="n">
-        <v>2830.895124814529</v>
+        <v>2830.698874560731</v>
       </c>
       <c r="E29" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F29" t="n">
-        <v>6.984895524198227</v>
+        <v>6.983255135209355</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.6694224257371</v>
+        <v>126.7621200042391</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2444209892226888</v>
+        <v>0.2451124001292261</v>
       </c>
       <c r="D30" t="n">
-        <v>2709.111744754186</v>
+        <v>2708.94914343648</v>
       </c>
       <c r="E30" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F30" t="n">
-        <v>7.044123885301688</v>
+        <v>7.042453491134591</v>
       </c>
       <c r="G30" t="n">
-        <v>99.70966723301447</v>
+        <v>99.69622639767523</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.7506107154498</v>
+        <v>110.8351260151805</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1470315561254752</v>
+        <v>0.1474475969065661</v>
       </c>
       <c r="D31" t="n">
-        <v>2637.281276264369</v>
+        <v>2637.115666257811</v>
       </c>
       <c r="E31" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F31" t="n">
-        <v>7.08660925048975</v>
+        <v>7.084931259419607</v>
       </c>
       <c r="G31" t="n">
-        <v>97.5346389152145</v>
+        <v>97.52120413986363</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.7506107154498</v>
+        <v>110.8351260151805</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1470315561254752</v>
+        <v>0.1474475969065661</v>
       </c>
       <c r="D32" t="n">
-        <v>2637.281276264369</v>
+        <v>2637.115666257811</v>
       </c>
       <c r="E32" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F32" t="n">
-        <v>7.08660925048975</v>
+        <v>7.084931259419607</v>
       </c>
       <c r="G32" t="n">
-        <v>97.5346389152145</v>
+        <v>97.52120413986363</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.26660695623588</v>
+        <v>45.32533740565464</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009727318443123779</v>
+        <v>0.009756676989241694</v>
       </c>
       <c r="D33" t="n">
-        <v>2303.605369784374</v>
+        <v>2303.590815163194</v>
       </c>
       <c r="E33" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F33" t="n">
-        <v>7.281392433454172</v>
+        <v>7.280122352886147</v>
       </c>
       <c r="G33" t="n">
-        <v>88.33040580125521</v>
+        <v>88.32474745731122</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.26660695482678</v>
+        <v>45.32533740596028</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009727318443123779</v>
+        <v>0.009756676989241694</v>
       </c>
       <c r="D34" t="n">
-        <v>189.5494170596659</v>
+        <v>189.7949605277025</v>
       </c>
       <c r="E34" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.46966079702622</v>
+        <v>45.51199207402885</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>190.9976513050555</v>
+        <v>191.1745466419049</v>
       </c>
       <c r="E35" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>525.7397354713804</v>
+        <v>525.5354210712899</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3525.131045060758</v>
+        <v>3524.678585395577</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57370646409867</v>
+        <v>38.57380562101118</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>540.7397354713804</v>
+        <v>540.5354210712899</v>
       </c>
       <c r="C42" t="n">
-        <v>3.676391612836293</v>
+        <v>3.698028476781792</v>
       </c>
       <c r="D42" t="n">
-        <v>3542.305723105836</v>
+        <v>3541.631562674369</v>
       </c>
       <c r="E42" t="n">
-        <v>41.07209367474709</v>
+        <v>41.10366230099895</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474574269994</v>
+        <v>18.07479220533334</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2647,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944169</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3062,13 +3062,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6683824848061958</v>
+        <v>0.6700296794929513</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6955646847643518</v>
+        <v>0.6967092927235693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9609206727231056</v>
+        <v>0.9617062474847691</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.13036635680587</v>
+        <v>74.33804463369279</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +3144,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.26212233755122</v>
+        <v>34.37169407162231</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493003477725191</v>
+        <v>0.8493021569453083</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +3159,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.208010334768872</v>
+        <v>9.231299632396341</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372061515151766</v>
+        <v>0.8372059564035309</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +3174,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.431083419410669</v>
+        <v>5.446552902827088</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149530090954357</v>
+        <v>0.8149530978647122</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3189,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.22915026507511</v>
+        <v>25.28849802684705</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8432587895600062</v>
+        <v>0.8428977213372143</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1095006222696853</v>
+        <v>0.1046028822511211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1129172363623383</v>
+        <v>0.1078190489242853</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9697423156754432</v>
+        <v>0.9701707007690016</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4788342961563501</v>
+        <v>0.5026521156999308</v>
       </c>
     </row>
     <row r="13">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41971.58058289427</v>
+        <v>41965.37028715674</v>
       </c>
       <c r="C2" t="n">
-        <v>42395.53594231745</v>
+        <v>42389.26291631994</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90912.58250653204</v>
+        <v>90824.3483786923</v>
       </c>
       <c r="C3" t="n">
-        <v>91830.89142073944</v>
+        <v>91741.76603908313</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39735.77849029278</v>
+        <v>39760.32070208505</v>
       </c>
       <c r="C4" t="n">
-        <v>40137.14999019473</v>
+        <v>40161.94010311621</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.8858252133183</v>
+        <v>515.940031732153</v>
       </c>
       <c r="C5" t="n">
-        <v>521.0967931447659</v>
+        <v>521.1515472041949</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33090.25166230425</v>
+        <v>33108.56025738989</v>
       </c>
       <c r="C6" t="n">
-        <v>33424.49662859015</v>
+        <v>33442.99015897969</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39205.52442382372</v>
+        <v>39226.80566991707</v>
       </c>
       <c r="C7" t="n">
-        <v>39601.53982204416</v>
+        <v>39623.03603021926</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.60353792975</v>
+        <v>80155.8095845583</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>380.1542706358214</v>
+        <v>381.8801384631674</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3708,7 +3708,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.48825192241195</v>
+        <v>50.49889480584679</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -3733,31 +3733,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>567.7954990374102</v>
+        <v>567.6663312286794</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1016.92071314366</v>
+        <v>1016.660781313146</v>
       </c>
       <c r="E5" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="6">
@@ -3767,31 +3767,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.5419260801762</v>
+        <v>477.5305563545095</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>912.4105255585156</v>
+        <v>912.2923923102686</v>
       </c>
       <c r="E6" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="7">
@@ -3801,31 +3801,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.4181518973691</v>
+        <v>264.7597303867482</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>674.2929323208219</v>
+        <v>674.5680850398254</v>
       </c>
       <c r="E7" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="8">
@@ -3835,31 +3835,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197.1016066640761</v>
+        <v>197.3177390945166</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>601.4620285456854</v>
+        <v>601.5995467592049</v>
       </c>
       <c r="E8" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="9">
@@ -3869,31 +3869,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.2057397926773</v>
+        <v>196.4218374043966</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>600.4994202580459</v>
+        <v>600.6368913766937</v>
       </c>
       <c r="E9" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="10">
@@ -3903,31 +3903,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.6595232025719</v>
+        <v>145.8635411879638</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.4393479406064</v>
+        <v>546.5635537278122</v>
       </c>
       <c r="E10" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="11">
@@ -3937,31 +3937,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.87297581684469</v>
+        <v>90.95660008461483</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>488.3326027709384</v>
+        <v>488.3296076304499</v>
       </c>
       <c r="E11" t="n">
-        <v>430.6425225582334</v>
+        <v>432.3790332690141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7719211116485178</v>
+        <v>0.7719529138077706</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1100823478623945</v>
+        <v>0.1101340338049401</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03733652753047636</v>
+        <v>0.03730906121378755</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07390348648521557</v>
+        <v>0.0738484383490457</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006756526473395644</v>
+        <v>0.006755552824455918</v>
       </c>
     </row>
     <row r="12">
@@ -3980,7 +3980,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.85827057300812</v>
+        <v>47.86835905846181</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.629981349403867</v>
+        <v>2.630535747385016</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4087,16 +4087,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.9319041583734</v>
+        <v>504.8925558733858</v>
       </c>
       <c r="C3" t="n">
-        <v>7.987274383792103</v>
+        <v>8.008990376510894</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.83913988873</v>
+        <v>3411.485446823498</v>
       </c>
       <c r="E3" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +4108,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.0030887624895</v>
+        <v>298.1779487324409</v>
       </c>
       <c r="C4" t="n">
-        <v>8.34889903318437</v>
+        <v>8.369621167870241</v>
       </c>
       <c r="D4" t="n">
-        <v>2753.38869593236</v>
+        <v>2753.067505198569</v>
       </c>
       <c r="E4" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +4129,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.8418922619991</v>
+        <v>297.0015416788228</v>
       </c>
       <c r="C5" t="n">
-        <v>8.34889903318437</v>
+        <v>8.369621167870241</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.276424228535</v>
+        <v>1328.157029372179</v>
       </c>
       <c r="E5" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +4150,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.5456666351681</v>
+        <v>165.6380720218726</v>
       </c>
       <c r="C6" t="n">
-        <v>8.34889903318437</v>
+        <v>8.369621167870241</v>
       </c>
       <c r="D6" t="n">
-        <v>703.9638238106493</v>
+        <v>704.3753904914072</v>
       </c>
       <c r="E6" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +4171,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.1381553733542</v>
+        <v>164.2263398026629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D7" t="n">
-        <v>693.4792966097505</v>
+        <v>693.8636129668557</v>
       </c>
       <c r="E7" t="n">
-        <v>63.74941587722688</v>
+        <v>63.74085428730014</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +4192,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.4902052928896</v>
+        <v>177.5650192066274</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6798886425314981</v>
+        <v>0.6814049960122142</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.841067224075</v>
+        <v>2794.912445337011</v>
       </c>
       <c r="E8" t="n">
-        <v>15.66116174443299</v>
+        <v>15.67481049356551</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +4213,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.1381552383182</v>
+        <v>164.2263396674413</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.903209743645</v>
+        <v>2761.99627893044</v>
       </c>
       <c r="E9" t="n">
-        <v>15.66116174443299</v>
+        <v>15.67481049356551</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +4234,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.1259325185634</v>
+        <v>162.221178211779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D10" t="n">
-        <v>684.736201144957</v>
+        <v>685.1506166474048</v>
       </c>
       <c r="E10" t="n">
-        <v>79.41057762165987</v>
+        <v>79.41566478086565</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +4255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.1259325185634</v>
+        <v>162.221178211779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D11" t="n">
-        <v>684.736201144957</v>
+        <v>685.1506166474048</v>
       </c>
       <c r="E11" t="n">
-        <v>90.54467573302709</v>
+        <v>90.50746582052514</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +4279,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6860860792947268</v>
+        <v>0.6875937837105278</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7397354762377</v>
+        <v>251.7410014521998</v>
       </c>
       <c r="E12" t="n">
-        <v>90.55035693718604</v>
+        <v>90.51359119166814</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +4297,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.46966079702622</v>
+        <v>45.51199207402885</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>190.9976513050555</v>
+        <v>191.1745466419049</v>
       </c>
       <c r="E13" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +4318,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.46966079702622</v>
+        <v>45.51199207402885</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>190.9976513050555</v>
+        <v>191.1745466419049</v>
       </c>
       <c r="E14" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4339,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.7216950080699</v>
+        <v>93.59906622820944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08070456199572931</v>
+        <v>0.08033806681650087</v>
       </c>
       <c r="D15" t="n">
-        <v>392.7048909796932</v>
+        <v>392.1884859073539</v>
       </c>
       <c r="E15" t="n">
-        <v>13.81183186685591</v>
+        <v>13.78291882817883</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.62377368835524</v>
+        <v>56.60799648344687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08070437942603802</v>
+        <v>0.08033789741208011</v>
       </c>
       <c r="D16" t="n">
-        <v>237.1042649274721</v>
+        <v>237.0379487560054</v>
       </c>
       <c r="E16" t="n">
-        <v>13.81154287927535</v>
+        <v>13.78260926855079</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.30462160750245</v>
+        <v>19.25181954719377</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4423,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.22229546723574</v>
+        <v>74.16301065049323</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>310.7687511213161</v>
+        <v>310.5205255936152</v>
       </c>
       <c r="E19" t="n">
-        <v>19.30462160750245</v>
+        <v>19.25181954719377</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4444,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.8975266465858</v>
+        <v>151.2740127555864</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1121699616063787</v>
+        <v>0.1121700420968444</v>
       </c>
       <c r="D20" t="n">
-        <v>2779.491564060246</v>
+        <v>2778.248607553233</v>
       </c>
       <c r="E20" t="n">
-        <v>2.096530830956176</v>
+        <v>2.125463677301222</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4465,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.3921689457977</v>
+        <v>101.3921892240748</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1065614635260598</v>
+        <v>0.1065615399920021</v>
       </c>
       <c r="D21" t="n">
-        <v>425.0400711135778</v>
+        <v>425.0401566902394</v>
       </c>
       <c r="E21" t="n">
-        <v>2.096530830956176</v>
+        <v>2.125463677301222</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.70639252642272</v>
+        <v>93.58419848006122</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>392.3486655081319</v>
+        <v>391.8370390360163</v>
       </c>
       <c r="E22" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4516,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.21584361047483</v>
+        <v>51.20837544794172</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4537,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>153.246658627274</v>
+        <v>152.8274978959496</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.7551579006815</v>
+        <v>128.7922320651679</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08495217052182033</v>
+        <v>0.08456638612263249</v>
       </c>
       <c r="D25" t="n">
-        <v>2737.62545015658</v>
+        <v>2735.746514061444</v>
       </c>
       <c r="E25" t="n">
-        <v>11.71527745547391</v>
+        <v>11.65743835217266</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4570,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.0905738504395</v>
+        <v>502.0592445282808</v>
       </c>
       <c r="C26" t="n">
-        <v>7.39375365046333</v>
+        <v>7.417275635864874</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.83913988873</v>
+        <v>3411.485446823498</v>
       </c>
       <c r="E26" t="n">
-        <v>59.94858344580796</v>
+        <v>60.1471198479101</v>
       </c>
       <c r="F26" t="n">
-        <v>6.776698768053326</v>
+        <v>6.774861593455926</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4595,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.4504525675076</v>
+        <v>193.353985785737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.526085991193024</v>
+        <v>0.5275188412189237</v>
       </c>
       <c r="D27" t="n">
-        <v>2840.314003376983</v>
+        <v>2840.025098289177</v>
       </c>
       <c r="E27" t="n">
-        <v>59.94858344580796</v>
+        <v>60.1471198479101</v>
       </c>
       <c r="F27" t="n">
-        <v>7.005175846892578</v>
+        <v>7.003339161818948</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.9889990587478</v>
+        <v>175.066709184613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5958878397651558</v>
+        <v>0.597442407844875</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.841067224075</v>
+        <v>2794.912445337011</v>
       </c>
       <c r="E28" t="n">
-        <v>15.66116174443299</v>
+        <v>15.67481049356551</v>
       </c>
       <c r="F28" t="n">
-        <v>6.850247098185921</v>
+        <v>6.849253810333533</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4645,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.129402251712</v>
+        <v>189.0774715752917</v>
       </c>
       <c r="C29" t="n">
-        <v>0.526085991193024</v>
+        <v>0.5275188412189237</v>
       </c>
       <c r="D29" t="n">
-        <v>2830.895124814529</v>
+        <v>2830.698874560731</v>
       </c>
       <c r="E29" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F29" t="n">
-        <v>6.984895524198227</v>
+        <v>6.983255135209355</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4670,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.6694224257371</v>
+        <v>126.7621200042391</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2444209892226888</v>
+        <v>0.2451124001292261</v>
       </c>
       <c r="D30" t="n">
-        <v>2709.111744754186</v>
+        <v>2708.94914343648</v>
       </c>
       <c r="E30" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F30" t="n">
-        <v>7.044123885301688</v>
+        <v>7.042453491134591</v>
       </c>
       <c r="G30" t="n">
-        <v>99.70966723301447</v>
+        <v>99.69622639767523</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4695,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.7506107154498</v>
+        <v>110.8351260151805</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1470315561254752</v>
+        <v>0.1474475969065661</v>
       </c>
       <c r="D31" t="n">
-        <v>2637.281276264369</v>
+        <v>2637.115666257811</v>
       </c>
       <c r="E31" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F31" t="n">
-        <v>7.08660925048975</v>
+        <v>7.084931259419607</v>
       </c>
       <c r="G31" t="n">
-        <v>97.5346389152145</v>
+        <v>97.52120413986363</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.7506107154498</v>
+        <v>110.8351260151805</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1470315561254752</v>
+        <v>0.1474475969065661</v>
       </c>
       <c r="D32" t="n">
-        <v>2637.281276264369</v>
+        <v>2637.115666257811</v>
       </c>
       <c r="E32" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F32" t="n">
-        <v>7.08660925048975</v>
+        <v>7.084931259419607</v>
       </c>
       <c r="G32" t="n">
-        <v>97.5346389152145</v>
+        <v>97.52120413986363</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4745,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.26660695623588</v>
+        <v>45.32533740565464</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009727318443123779</v>
+        <v>0.009756676989241694</v>
       </c>
       <c r="D33" t="n">
-        <v>2303.605369784374</v>
+        <v>2303.590815163194</v>
       </c>
       <c r="E33" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F33" t="n">
-        <v>7.281392433454172</v>
+        <v>7.280122352886147</v>
       </c>
       <c r="G33" t="n">
-        <v>88.33040580125521</v>
+        <v>88.32474745731122</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4770,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.26660695482678</v>
+        <v>45.32533740596028</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009727318443123779</v>
+        <v>0.009756676989241694</v>
       </c>
       <c r="D34" t="n">
-        <v>189.5494170596659</v>
+        <v>189.7949605277025</v>
       </c>
       <c r="E34" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4791,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.46966079702622</v>
+        <v>45.51199207402885</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>190.9976513050555</v>
+        <v>191.1745466419049</v>
       </c>
       <c r="E35" t="n">
-        <v>75.60974519024094</v>
+        <v>75.82193034147562</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4896,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>525.7397354713804</v>
+        <v>525.5354210712899</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3525.131045060758</v>
+        <v>3524.678585395577</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57370646409867</v>
+        <v>38.57380562101118</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>540.7397354713804</v>
+        <v>540.5354210712899</v>
       </c>
       <c r="C42" t="n">
-        <v>3.676391612836293</v>
+        <v>3.698028476781792</v>
       </c>
       <c r="D42" t="n">
-        <v>3542.305723105836</v>
+        <v>3541.631562674369</v>
       </c>
       <c r="E42" t="n">
-        <v>41.07209367474709</v>
+        <v>41.10366230099895</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +5049,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44180396823456</v>
+        <v>45.44192078016148</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474574269994</v>
+        <v>18.07479220533334</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5236,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944169</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">

--- a/resdataTemp-5.xlsx
+++ b/resdataTemp-5.xlsx
@@ -525,7 +525,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>381.8801384631674</v>
+        <v>459.9372369783366</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.49889480584679</v>
+        <v>9.728971139461088</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>567.6663312286794</v>
+        <v>539.5487839648041</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1016.660781313146</v>
+        <v>960.6956251426753</v>
       </c>
       <c r="E5" t="n">
-        <v>432.3790332690141</v>
+        <v>469.6662081177977</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7719529138077706</v>
+        <v>0.7788161088095436</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1101340338049401</v>
+        <v>0.1212883299557131</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03730906121378755</v>
+        <v>0.03138158044379127</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0738484383490457</v>
+        <v>0.06196855025673063</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006755552824455918</v>
+        <v>0.006545430534221564</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.5305563545095</v>
+        <v>465.1882142529383</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>912.2923923102686</v>
+        <v>875.6470249864499</v>
       </c>
       <c r="E6" t="n">
-        <v>432.3790332690141</v>
+        <v>469.6662081177977</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7719529138077706</v>
+        <v>0.7788161088095436</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1101340338049401</v>
+        <v>0.1212883299557131</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03730906121378755</v>
+        <v>0.03138158044379127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0738484383490457</v>
+        <v>0.06196855025673063</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006755552824455918</v>
+        <v>0.006545430534221564</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.7597303867482</v>
+        <v>295.6645943341945</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>674.5680850398254</v>
+        <v>687.2267090451861</v>
       </c>
       <c r="E7" t="n">
-        <v>432.3790332690141</v>
+        <v>469.6662081177977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7719529138077706</v>
+        <v>0.7788161088095436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1101340338049401</v>
+        <v>0.1212883299557131</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03730906121378755</v>
+        <v>0.03138158044379127</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0738484383490457</v>
+        <v>0.06196855025673063</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006755552824455918</v>
+        <v>0.006545430534221564</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197.3177390945166</v>
+        <v>227.8530357686964</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>601.5995467592049</v>
+        <v>613.8901169609903</v>
       </c>
       <c r="E8" t="n">
-        <v>432.3790332690141</v>
+        <v>469.6662081177977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7719529138077706</v>
+        <v>0.7788161088095436</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1101340338049401</v>
+        <v>0.1212883299557131</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03730906121378755</v>
+        <v>0.03138158044379127</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0738484383490457</v>
+        <v>0.06196855025673063</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006755552824455918</v>
+        <v>0.006545430534221564</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196.4218374043966</v>
+        <v>226.9319507524272</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>600.6368913766937</v>
+        <v>612.9011908107477</v>
       </c>
       <c r="E9" t="n">
-        <v>432.3790332690141</v>
+        <v>469.6662081177977</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7719529138077706</v>
+        <v>0.7788161088095436</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1101340338049401</v>
+        <v>0.1212883299557131</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03730906121378755</v>
+        <v>0.03138158044379127</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0738484383490457</v>
+        <v>0.06196855025673063</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006755552824455918</v>
+        <v>0.006545430534221564</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.8635411879638</v>
+        <v>167.3824056686158</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>546.5635537278122</v>
+        <v>549.3342465831009</v>
       </c>
       <c r="E10" t="n">
-        <v>432.3790332690141</v>
+        <v>469.6662081177977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7719529138077706</v>
+        <v>0.7788161088095436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1101340338049401</v>
+        <v>0.1212883299557131</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03730906121378755</v>
+        <v>0.03138158044379127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0738484383490457</v>
+        <v>0.06196855025673063</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006755552824455918</v>
+        <v>0.006545430534221564</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90.95660008461483</v>
+        <v>102.2861330403985</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>488.3296076304499</v>
+        <v>480.5654182402078</v>
       </c>
       <c r="E11" t="n">
-        <v>432.3790332690141</v>
+        <v>469.6662081177977</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7719529138077706</v>
+        <v>0.7788161088095436</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1101340338049401</v>
+        <v>0.1212883299557131</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03730906121378755</v>
+        <v>0.03138158044379127</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0738484383490457</v>
+        <v>0.06196855025673063</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006755552824455918</v>
+        <v>0.006545430534221564</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>47.86835905846181</v>
+        <v>9.222179724202904</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.630535747385016</v>
+        <v>0.5067914152581894</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6700296794929513</v>
+        <v>0.6565897912065939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6967092927235693</v>
+        <v>0.6873274159883521</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9617062474847691</v>
+        <v>0.955279501345718</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.33804463369279</v>
+        <v>72.64329888578828</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.37169407162231</v>
+        <v>33.46956668599379</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493021569453083</v>
+        <v>0.8492847756267711</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.231299632396341</v>
+        <v>9.04157774819258</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372059564035309</v>
+        <v>0.8372074936925521</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.446552902827088</v>
+        <v>5.320674917778075</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149530978647122</v>
+        <v>0.8149523368082944</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.28849802684705</v>
+        <v>24.81147953382384</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8428977213372143</v>
+        <v>0.8461088398318973</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1046028822511211</v>
+        <v>0.1507246038355689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1078190489242853</v>
+        <v>0.1559109150425307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9701707007690016</v>
+        <v>0.9667354193543981</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5026521156999308</v>
+        <v>0.3409489975263966</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>320657.5144736655</v>
+        <v>48243.76705479395</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>482335.5064795458</v>
+        <v>72528.78164570926</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41965.37028715674</v>
+        <v>42021.74855881947</v>
       </c>
       <c r="C2" t="n">
-        <v>42389.26291631994</v>
+        <v>42446.21066547421</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90824.3483786923</v>
+        <v>91538.38547590694</v>
       </c>
       <c r="C3" t="n">
-        <v>91741.76603908313</v>
+        <v>92463.01563222923</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39760.32070208505</v>
+        <v>39549.22233440456</v>
       </c>
       <c r="C4" t="n">
-        <v>40161.94010311621</v>
+        <v>39948.70942869148</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.940031732153</v>
+        <v>515.5099424802538</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1515472041949</v>
+        <v>520.717113616418</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33108.56025738989</v>
+        <v>32968.39996303276</v>
       </c>
       <c r="C6" t="n">
-        <v>33442.99015897969</v>
+        <v>33301.4141040735</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39226.80566991707</v>
+        <v>39041.67692616293</v>
       </c>
       <c r="C7" t="n">
-        <v>39623.03603021926</v>
+        <v>39436.03729915448</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.8095845583</v>
+        <v>15029.12724023594</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>252987.3479393725</v>
+        <v>38034.38022502013</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>486855627.0844427</v>
+        <v>90243191.78631382</v>
       </c>
       <c r="C3" t="n">
-        <v>95.76137602385535</v>
+        <v>90.48805194441371</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.8925558733858</v>
+        <v>513.4809031974881</v>
       </c>
       <c r="C3" t="n">
-        <v>8.008990376510894</v>
+        <v>6.834641968103768</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.485446823498</v>
+        <v>3445.852889091203</v>
       </c>
       <c r="E3" t="n">
-        <v>63.74085428730014</v>
+        <v>58.52105777564326</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.1779487324409</v>
+        <v>287.7051683103637</v>
       </c>
       <c r="C4" t="n">
-        <v>8.369621167870241</v>
+        <v>7.196170640494726</v>
       </c>
       <c r="D4" t="n">
-        <v>2753.067505198569</v>
+        <v>2770.042500237948</v>
       </c>
       <c r="E4" t="n">
-        <v>63.74085428730014</v>
+        <v>58.52105777564326</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.0015416788228</v>
+        <v>286.8355244566806</v>
       </c>
       <c r="C5" t="n">
-        <v>8.369621167870241</v>
+        <v>7.196170640494726</v>
       </c>
       <c r="D5" t="n">
-        <v>1328.157029372179</v>
+        <v>1272.96199226535</v>
       </c>
       <c r="E5" t="n">
-        <v>63.74085428730014</v>
+        <v>58.52105777564326</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.6380720218726</v>
+        <v>162.5246288078494</v>
       </c>
       <c r="C6" t="n">
-        <v>8.369621167870241</v>
+        <v>7.196170640494726</v>
       </c>
       <c r="D6" t="n">
-        <v>704.3753904914072</v>
+        <v>690.2375640785581</v>
       </c>
       <c r="E6" t="n">
-        <v>63.74085428730014</v>
+        <v>58.52105777564326</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.2263398026629</v>
+        <v>156.6596768792896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.5674592450563483</v>
       </c>
       <c r="D7" t="n">
-        <v>693.8636129668557</v>
+        <v>660.9787403971466</v>
       </c>
       <c r="E7" t="n">
-        <v>63.74085428730014</v>
+        <v>58.52105777564326</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.5650192066274</v>
+        <v>170.0105596711602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6814049960122142</v>
+        <v>0.561040268633596</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.912445337011</v>
+        <v>2785.827358255844</v>
       </c>
       <c r="E8" t="n">
-        <v>15.67481049356551</v>
+        <v>14.31482370761441</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.2263396674413</v>
+        <v>156.6596767594861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.5674592450563483</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.99627893044</v>
+        <v>2753.70762363876</v>
       </c>
       <c r="E9" t="n">
-        <v>15.67481049356551</v>
+        <v>14.31482370761441</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.221178211779</v>
+        <v>156.6596768792896</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.5674592450563483</v>
       </c>
       <c r="D10" t="n">
-        <v>685.1506166474048</v>
+        <v>666.4946493230619</v>
       </c>
       <c r="E10" t="n">
-        <v>79.41566478086565</v>
+        <v>72.83588148325768</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.221178211779</v>
+        <v>156.6596768792896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.5674592450563483</v>
       </c>
       <c r="D11" t="n">
-        <v>685.1506166474048</v>
+        <v>666.4946493230619</v>
       </c>
       <c r="E11" t="n">
-        <v>90.50746582052514</v>
+        <v>77.07620174336481</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.5674592450563483</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7410014521998</v>
+        <v>251.6401264895223</v>
       </c>
       <c r="E12" t="n">
-        <v>90.51359119166814</v>
+        <v>77.07641359918524</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.51199207402885</v>
+        <v>54.20001684817163</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>191.1745466419049</v>
+        <v>227.4903189042822</v>
       </c>
       <c r="E13" t="n">
-        <v>75.82193034147562</v>
+        <v>72.83783542146344</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.51199207402885</v>
+        <v>53.70635482775634</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>191.1745466419049</v>
+        <v>225.4261996289316</v>
       </c>
       <c r="E14" t="n">
-        <v>75.82193034147562</v>
+        <v>64.30755955400686</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.59906622820944</v>
+        <v>87.26951781442835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08033806681650087</v>
+        <v>0.06321138780052762</v>
       </c>
       <c r="D15" t="n">
-        <v>392.1884859073539</v>
+        <v>365.5549641777845</v>
       </c>
       <c r="E15" t="n">
-        <v>13.78291882817883</v>
+        <v>59.86760499156123</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.60799648344687</v>
+        <v>55.98984777056188</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08033789741208011</v>
+        <v>0.06321137138283348</v>
       </c>
       <c r="D16" t="n">
-        <v>237.0379487560054</v>
+        <v>234.437395637435</v>
       </c>
       <c r="E16" t="n">
-        <v>13.78260926855079</v>
+        <v>59.86818612904113</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.25181954719377</v>
+        <v>79.06220378905317</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.16301065049323</v>
+        <v>71.37578976501354</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>310.5205255936152</v>
+        <v>298.8504317461117</v>
       </c>
       <c r="E19" t="n">
-        <v>19.25181954719377</v>
+        <v>79.06220378905317</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.2740127555864</v>
+        <v>107.1703569949166</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1121700420968444</v>
+        <v>0.1302695613978712</v>
       </c>
       <c r="D20" t="n">
-        <v>2778.248607553233</v>
+        <v>2662.695851980795</v>
       </c>
       <c r="E20" t="n">
-        <v>2.125463677301222</v>
+        <v>19.87874082110242</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.3921892240748</v>
+        <v>105.6751439411506</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1065615399920021</v>
+        <v>0.1237560833279777</v>
       </c>
       <c r="D21" t="n">
-        <v>425.0401566902394</v>
+        <v>443.1265360515708</v>
       </c>
       <c r="E21" t="n">
-        <v>2.125463677301222</v>
+        <v>19.87874082110242</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.58419848006122</v>
+        <v>84.70018272563635</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8370390360163</v>
+        <v>354.6396650722394</v>
       </c>
       <c r="E22" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.20837544794172</v>
+        <v>50.8572666863368</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.7922320651679</v>
+        <v>88.60252403137673</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08456638612263249</v>
+        <v>0.06653830294792382</v>
       </c>
       <c r="D25" t="n">
-        <v>2735.746514061444</v>
+        <v>2573.4407480937</v>
       </c>
       <c r="E25" t="n">
-        <v>11.65743835217266</v>
+        <v>39.98875773829439</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.0592445282808</v>
+        <v>510.6876535719464</v>
       </c>
       <c r="C26" t="n">
-        <v>7.417275635864874</v>
+        <v>6.236149326016002</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.485446823498</v>
+        <v>3445.852889091203</v>
       </c>
       <c r="E26" t="n">
-        <v>60.1471198479101</v>
+        <v>49.99230441671617</v>
       </c>
       <c r="F26" t="n">
-        <v>6.774861593455926</v>
+        <v>6.894845793734702</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.353985785737</v>
+        <v>196.0747848410047</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5275188412189237</v>
+        <v>0.4184036704596389</v>
       </c>
       <c r="D27" t="n">
-        <v>2840.025098289177</v>
+        <v>2851.723683395106</v>
       </c>
       <c r="E27" t="n">
-        <v>60.1471198479101</v>
+        <v>49.99230441671617</v>
       </c>
       <c r="F27" t="n">
-        <v>7.003339161818948</v>
+        <v>7.132466737536994</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.066709184613</v>
+        <v>167.32202151113</v>
       </c>
       <c r="C28" t="n">
-        <v>0.597442407844875</v>
+        <v>0.4767201075376427</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.912445337011</v>
+        <v>2785.827358255844</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67481049356551</v>
+        <v>14.31482370761441</v>
       </c>
       <c r="F28" t="n">
-        <v>6.849253810333533</v>
+        <v>6.928986734623781</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.0774715752917</v>
+        <v>189.152685184594</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5275188412189237</v>
+        <v>0.4184036704596389</v>
       </c>
       <c r="D29" t="n">
-        <v>2830.698874560731</v>
+        <v>2837.055103023667</v>
       </c>
       <c r="E29" t="n">
-        <v>75.82193034147562</v>
+        <v>64.30712812433059</v>
       </c>
       <c r="F29" t="n">
-        <v>6.983255135209355</v>
+        <v>7.100972287370246</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.7621200042391</v>
+        <v>107.1697818645459</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2451124001292261</v>
+        <v>0.1302699444560139</v>
       </c>
       <c r="D30" t="n">
-        <v>2708.94914343648</v>
+        <v>2662.693820052593</v>
       </c>
       <c r="E30" t="n">
-        <v>75.82193034147562</v>
+        <v>64.30712812433059</v>
       </c>
       <c r="F30" t="n">
-        <v>7.042453491134591</v>
+        <v>7.2069466390869</v>
       </c>
       <c r="G30" t="n">
-        <v>99.69622639767523</v>
+        <v>98.92534257838935</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.8351260151805</v>
+        <v>88.60169481425095</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1474475969065661</v>
+        <v>0.0665361888537814</v>
       </c>
       <c r="D31" t="n">
-        <v>2637.115666257811</v>
+        <v>2573.437398727923</v>
       </c>
       <c r="E31" t="n">
-        <v>75.82193034147562</v>
+        <v>44.42828087106375</v>
       </c>
       <c r="F31" t="n">
-        <v>7.084931259419607</v>
+        <v>7.264468889121327</v>
       </c>
       <c r="G31" t="n">
-        <v>97.52120413986363</v>
+        <v>96.33390174342806</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.8351260151805</v>
+        <v>42.50034642479386</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1474475969065661</v>
+        <v>0.008427862709745177</v>
       </c>
       <c r="D32" t="n">
-        <v>2637.115666257811</v>
+        <v>2573.437398727923</v>
       </c>
       <c r="E32" t="n">
-        <v>75.82193034147562</v>
+        <v>4.439373424965723</v>
       </c>
       <c r="F32" t="n">
-        <v>7.084931259419607</v>
+        <v>8.194585427426752</v>
       </c>
       <c r="G32" t="n">
-        <v>97.52120413986363</v>
+        <v>99.81094221428904</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.32533740565464</v>
+        <v>36.37917946006155</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009756676989241694</v>
+        <v>0.002744348222505503</v>
       </c>
       <c r="D33" t="n">
-        <v>2303.590815163194</v>
+        <v>2568.265590651446</v>
       </c>
       <c r="E33" t="n">
-        <v>75.82193034147562</v>
+        <v>4.439373424965723</v>
       </c>
       <c r="F33" t="n">
-        <v>7.280122352886147</v>
+        <v>8.694722023818658</v>
       </c>
       <c r="G33" t="n">
-        <v>88.32474745731122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.32533740596028</v>
+        <v>22.60375142457684</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009756676989241694</v>
+        <v>0.002744348222505503</v>
       </c>
       <c r="D34" t="n">
-        <v>189.7949605277025</v>
+        <v>94.80736419233713</v>
       </c>
       <c r="E34" t="n">
-        <v>75.82193034147562</v>
+        <v>4.439373424965723</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.51199207402885</v>
+        <v>24.62499744582487</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>191.1745466419049</v>
+        <v>103.9036539362312</v>
       </c>
       <c r="E35" t="n">
-        <v>75.82193034147562</v>
+        <v>4.439373424965723</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>525.5354210712899</v>
+        <v>498.4801380564361</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3524.678585395577</v>
+        <v>3464.888374349508</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57380562101118</v>
+        <v>7.232546659100655</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80</v>
+        <v>57.9</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>336.57</v>
+        <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.530275867456588</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>540.5354210712899</v>
+        <v>513.4801380564361</v>
       </c>
       <c r="C42" t="n">
-        <v>3.698028476781792</v>
+        <v>6.834500995377648</v>
       </c>
       <c r="D42" t="n">
-        <v>3541.631562674369</v>
+        <v>3445.849832022522</v>
       </c>
       <c r="E42" t="n">
-        <v>41.10366230099895</v>
+        <v>8.530275867456588</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07479220533334</v>
+        <v>3.389003907548475</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2647,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944171</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -2665,42 +2665,18 @@
           <t>SGaccum-Separacc</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>95.76137602385535</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1331.021263486354</v>
-      </c>
-      <c r="E7" t="n">
-        <v>365775.9950500099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.168738364456343</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0503573198627571</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0975081144748292</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.681387369772999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.00200883143307171</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2708,42 +2684,18 @@
           <t>Separacc-Sepout</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>95.76137602385535</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1322.279758018715</v>
-      </c>
-      <c r="E8" t="n">
-        <v>362333.6697052593</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1697418120559119</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.04471001688632922</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09808797243258231</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.6854394211412709</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.002020777483905787</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2751,42 +2703,18 @@
           <t>Sepout-COMB</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>95.76137602385535</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1322.279758018715</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24.08094928508745</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1697418120559119</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.04471001688632922</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.09808797243258231</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.6854394211412709</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.002020777483905787</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2794,42 +2722,18 @@
           <t>Sepout-GTU</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>95.76137602385535</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1322.279758018715</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.081111111111111</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1697418120559119</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.04471001688632922</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.09808797243258231</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.6854394211412709</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.002020777483905787</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2837,18 +2741,10 @@
           <t>AIR-COMP</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>293.1871693088577</v>
-      </c>
-      <c r="E11" t="n">
-        <v>947.8135240630417</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2864,18 +2760,10 @@
           <t>COMP-COMB</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>343.3557890055408</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>631.5000402827663</v>
-      </c>
-      <c r="E12" t="n">
-        <v>947.8135240630417</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2891,42 +2779,18 @@
           <t>COMB-TURB</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>750</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1190.276118433534</v>
-      </c>
-      <c r="E13" t="n">
-        <v>971.8944770032679</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7479613035403302</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1675820382280998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01688966656712013</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.009589247481286286</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.05797774418316339</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2934,42 +2798,18 @@
           <t>TURB-COOL</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>315.5137564416856</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>693.9922955572322</v>
-      </c>
-      <c r="E14" t="n">
-        <v>971.8944770032679</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7479613035403302</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1675820382280998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.01688966656712013</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.009589247481286286</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.05797774418316339</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2977,42 +2817,18 @@
           <t>COOL-EX</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>70</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>433.6889869928788</v>
-      </c>
-      <c r="E15" t="n">
-        <v>971.8944770032679</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7479613035403302</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1675820382280998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.01688966656712013</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.009589247481286286</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.05797774418316339</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3062,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6700296794929513</v>
+        <v>1.712257311107243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6967092927235693</v>
+        <v>1.896740308148699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9617062474847691</v>
+        <v>0.9027368183989722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8074</v>
+        <v>0.2483461684672657</v>
       </c>
     </row>
     <row r="3">
@@ -3104,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>165.66</v>
+        <v>132.9810397327121</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>34.06106458434684</v>
+        <v>31.92038591909897</v>
       </c>
     </row>
     <row r="6">
@@ -3119,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.30138102032644</v>
+        <v>6.232043471238909</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3131,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.33804463369279</v>
+        <v>44.90303042145676</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.37169407162231</v>
+        <v>29.70188811402103</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493021569453083</v>
+        <v>0.8491129640198014</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.231299632396341</v>
+        <v>11.21267336394356</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372059564035309</v>
+        <v>0.8122466984520574</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.446552902827088</v>
+        <v>3.965509356158427</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149530978647122</v>
+        <v>0.8109413983031446</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.28849802684705</v>
+        <v>0.02295958733373593</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8428977213372143</v>
+        <v>0.03365358816944654</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3020,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1046028822511211</v>
+        <v>0.04038182695483143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1078190489242853</v>
+        <v>0.04525172060468462</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9701707007690016</v>
+        <v>0.8923821329934351</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5026521156999308</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -3222,9 +3038,7 @@
           <t>SGgtu_comp</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>320657.5144736655</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -3235,9 +3049,7 @@
           <t>SGgtu_turb</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>482335.5064795458</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -3285,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41965.37028715674</v>
+        <v>39545.00900569013</v>
       </c>
       <c r="C2" t="n">
-        <v>42389.26291631994</v>
+        <v>39944.45354110115</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90824.3483786923</v>
+        <v>87609.70876728588</v>
       </c>
       <c r="C3" t="n">
-        <v>91741.76603908313</v>
+        <v>88494.65532049078</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39760.32070208505</v>
+        <v>34099.28192926127</v>
       </c>
       <c r="C4" t="n">
-        <v>40161.94010311621</v>
+        <v>34443.71912046593</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.940031732153</v>
+        <v>459.8205431420461</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1515472041949</v>
+        <v>464.4651950929759</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33108.56025738989</v>
+        <v>29556.69320046405</v>
       </c>
       <c r="C6" t="n">
-        <v>33442.99015897969</v>
+        <v>29855.24565703439</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39226.80566991707</v>
+        <v>31975.41089606524</v>
       </c>
       <c r="C7" t="n">
-        <v>39623.03603021926</v>
+        <v>32298.39484451035</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3381,11 +3193,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>43.68102073417036</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3395,11 +3207,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>88.93431692799713</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -3409,11 +3221,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7.771271613175336</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -3423,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24590.6264901207</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3435,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2730.129524204976</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3447,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16151.33817345968</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3459,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5604.165420009971</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3471,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4048.755865352262</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3483,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.8095845583</v>
+        <v>15029.12724023594</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3495,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>27412.17804980315</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3506,9 +3318,7 @@
           <t>SGgtu_Qsw</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>252987.3479393725</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -3564,11 +3374,9 @@
           <t>PKM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>486855627.0844427</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>95.76137602385535</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -3665,16 +3473,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>533.4055660128</v>
+        <v>542.1</v>
       </c>
       <c r="C3" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>948.6294601883625</v>
+        <v>958.8691985312861</v>
       </c>
       <c r="E3" t="n">
-        <v>381.8801384631674</v>
+        <v>503.8</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3698,33 +3506,17 @@
           <t>REF-SMESH</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>800</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1531.123730073688</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50.49889480584679</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.710320591016015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00996710270335893</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.090538556815177</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.180531273012258</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.008642476453191781</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3732,33 +3524,19 @@
           <t>GTU-PEVD</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>567.6663312286794</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>1016.660781313146</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>432.3790332690141</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7719529138077706</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1101340338049401</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.03730906121378755</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0738484383490457</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.006755552824455918</v>
-      </c>
+        <v>503.8</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3766,33 +3544,17 @@
           <t>PEVD-IVD</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>477.5305563545095</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="D6" t="n">
-        <v>912.2923923102686</v>
-      </c>
-      <c r="E6" t="n">
-        <v>432.3790332690141</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7719529138077706</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1101340338049401</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03730906121378755</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0738484383490457</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.006755552824455918</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3800,33 +3562,17 @@
           <t>IVD-EVD</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>264.7597303867482</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
-        <v>674.5680850398254</v>
-      </c>
-      <c r="E7" t="n">
-        <v>432.3790332690141</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7719529138077706</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1101340338049401</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03730906121378755</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0738484383490457</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006755552824455918</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3834,33 +3580,17 @@
           <t>EVD-PPND</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>197.3177390945166</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" t="n">
-        <v>601.5995467592049</v>
-      </c>
-      <c r="E8" t="n">
-        <v>432.3790332690141</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7719529138077706</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1101340338049401</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.03730906121378755</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0738484383490457</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.006755552824455918</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3868,33 +3598,17 @@
           <t>PPND-IND</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>196.4218374043966</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="D9" t="n">
-        <v>600.6368913766937</v>
-      </c>
-      <c r="E9" t="n">
-        <v>432.3790332690141</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7719529138077706</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1101340338049401</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.03730906121378755</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0738484383490457</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.006755552824455918</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3902,33 +3616,17 @@
           <t>IND-GPK</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>145.8635411879638</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>546.5635537278122</v>
-      </c>
-      <c r="E10" t="n">
-        <v>432.3790332690141</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7719529138077706</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1101340338049401</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03730906121378755</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.0738484383490457</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.006755552824455918</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3936,33 +3634,17 @@
           <t>GPK-out</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>90.95660008461483</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="D11" t="n">
-        <v>488.3296076304499</v>
-      </c>
-      <c r="E11" t="n">
-        <v>432.3790332690141</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7719529138077706</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1101340338049401</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.03730906121378755</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0738484383490457</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.006755552824455918</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3970,18 +3652,12 @@
           <t>AIR-REF</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>15</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>288.39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.86835905846181</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -3994,18 +3670,12 @@
           <t>CH4-REF</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>15</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>881.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.630535747385016</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -4087,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.8925558733858</v>
+        <v>505.1970806426035</v>
       </c>
       <c r="C3" t="n">
-        <v>8.008990376510894</v>
+        <v>7.831782345456009</v>
       </c>
       <c r="D3" t="n">
-        <v>3411.485446823498</v>
+        <v>3414.314144467407</v>
       </c>
       <c r="E3" t="n">
-        <v>63.74085428730014</v>
+        <v>63.80150997856758</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.1779487324409</v>
+        <v>296.7517364421967</v>
       </c>
       <c r="C4" t="n">
-        <v>8.369621167870241</v>
+        <v>8.201751561294932</v>
       </c>
       <c r="D4" t="n">
-        <v>2753.067505198569</v>
+        <v>2755.647834274574</v>
       </c>
       <c r="E4" t="n">
-        <v>63.74085428730014</v>
+        <v>63.80150997856758</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.0015416788228</v>
+        <v>295.6834793810438</v>
       </c>
       <c r="C5" t="n">
-        <v>8.369621167870241</v>
+        <v>8.201751561294932</v>
       </c>
       <c r="D5" t="n">
-        <v>1328.157029372179</v>
+        <v>1320.899328819964</v>
       </c>
       <c r="E5" t="n">
-        <v>63.74085428730014</v>
+        <v>63.80150997856758</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.6380720218726</v>
+        <v>164.8845952300926</v>
       </c>
       <c r="C6" t="n">
-        <v>8.369621167870241</v>
+        <v>8.201751561294932</v>
       </c>
       <c r="D6" t="n">
-        <v>704.3753904914072</v>
+        <v>701.0204769691773</v>
       </c>
       <c r="E6" t="n">
-        <v>63.74085428730014</v>
+        <v>63.80150997856758</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.2263398026629</v>
+        <v>163.5069837996328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.6753713508090345</v>
       </c>
       <c r="D7" t="n">
-        <v>693.8636129668557</v>
+        <v>690.7293444955546</v>
       </c>
       <c r="E7" t="n">
-        <v>63.74085428730014</v>
+        <v>63.80150997856758</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.5650192066274</v>
+        <v>176.956099122536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6814049960122142</v>
+        <v>0.6692004725514031</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.912445337011</v>
+        <v>2794.330668163838</v>
       </c>
       <c r="E8" t="n">
-        <v>15.67481049356551</v>
+        <v>15.57498200137509</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.2263396674413</v>
+        <v>163.5069836659233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.6753713508090345</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.99627893044</v>
+        <v>2761.234599023061</v>
       </c>
       <c r="E9" t="n">
-        <v>15.67481049356551</v>
+        <v>15.57498200137509</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.221178211779</v>
+        <v>161.4235338323205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.6753713508090345</v>
       </c>
       <c r="D10" t="n">
-        <v>685.1506166474048</v>
+        <v>681.6811422886559</v>
       </c>
       <c r="E10" t="n">
-        <v>79.41566478086565</v>
+        <v>79.37649197994267</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.221178211779</v>
+        <v>161.4235338323205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.6753713508090345</v>
       </c>
       <c r="D11" t="n">
-        <v>685.1506166474048</v>
+        <v>681.6811422886559</v>
       </c>
       <c r="E11" t="n">
-        <v>90.50746582052514</v>
+        <v>90.80507074334241</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6875937837105278</v>
+        <v>0.6753713508090345</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7410014521998</v>
+        <v>251.7307386142097</v>
       </c>
       <c r="E12" t="n">
-        <v>90.51359119166814</v>
+        <v>90.80672181016996</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.51199207402885</v>
+        <v>45.18716261869298</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>191.1745466419049</v>
+        <v>189.8171483043822</v>
       </c>
       <c r="E13" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.51199207402885</v>
+        <v>45.18716261869298</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>191.1745466419049</v>
+        <v>189.8171483043822</v>
       </c>
       <c r="E14" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>93.59906622820944</v>
+        <v>87.26951781442835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08033806681650087</v>
+        <v>0.06321138780052762</v>
       </c>
       <c r="D15" t="n">
-        <v>392.1884859073539</v>
+        <v>365.5549641777845</v>
       </c>
       <c r="E15" t="n">
-        <v>13.78291882817883</v>
+        <v>59.86760499156123</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.60799648344687</v>
+        <v>55.98984777056188</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08033789741208011</v>
+        <v>0.06321137138283348</v>
       </c>
       <c r="D16" t="n">
-        <v>237.0379487560054</v>
+        <v>234.437395637435</v>
       </c>
       <c r="E16" t="n">
-        <v>13.78260926855079</v>
+        <v>59.86818612904113</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>19.25181954719377</v>
+        <v>79.06220378905317</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.16301065049323</v>
+        <v>71.37578976501354</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>310.5205255936152</v>
+        <v>298.8504317461117</v>
       </c>
       <c r="E19" t="n">
-        <v>19.25181954719377</v>
+        <v>79.06220378905317</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.2740127555864</v>
+        <v>107.1703569949166</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1121700420968444</v>
+        <v>0.1302695613978712</v>
       </c>
       <c r="D20" t="n">
-        <v>2778.248607553233</v>
+        <v>2662.695851980795</v>
       </c>
       <c r="E20" t="n">
-        <v>2.125463677301222</v>
+        <v>19.87874082110242</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.3921892240748</v>
+        <v>105.6751439411506</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1065615399920021</v>
+        <v>0.1237560833279777</v>
       </c>
       <c r="D21" t="n">
-        <v>425.0401566902394</v>
+        <v>443.1265360515708</v>
       </c>
       <c r="E21" t="n">
-        <v>2.125463677301222</v>
+        <v>19.87874082110242</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.58419848006122</v>
+        <v>84.70018272563635</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8370390360163</v>
+        <v>354.6396650722394</v>
       </c>
       <c r="E22" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4186,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.20837544794172</v>
+        <v>50.8572666863368</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>152.8274978959496</v>
+        <v>627.6226906033884</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.7922320651679</v>
+        <v>88.60252403137673</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08456638612263249</v>
+        <v>0.06653830294792382</v>
       </c>
       <c r="D25" t="n">
-        <v>2735.746514061444</v>
+        <v>2573.4407480937</v>
       </c>
       <c r="E25" t="n">
-        <v>11.65743835217266</v>
+        <v>39.98875773829439</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.0592445282808</v>
+        <v>502.2882808812379</v>
       </c>
       <c r="C26" t="n">
-        <v>7.417275635864874</v>
+        <v>7.224282077397519</v>
       </c>
       <c r="D26" t="n">
-        <v>3411.485446823498</v>
+        <v>3414.314144467407</v>
       </c>
       <c r="E26" t="n">
-        <v>60.1471198479101</v>
+        <v>58.52105777564326</v>
       </c>
       <c r="F26" t="n">
-        <v>6.774861593455926</v>
+        <v>6.789980921581788</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.353985785737</v>
+        <v>194.148399337788</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5275188412189237</v>
+        <v>0.5158547530544805</v>
       </c>
       <c r="D27" t="n">
-        <v>2840.025098289177</v>
+        <v>2842.390670112096</v>
       </c>
       <c r="E27" t="n">
-        <v>60.1471198479101</v>
+        <v>58.52105777564326</v>
       </c>
       <c r="F27" t="n">
-        <v>7.003339161818948</v>
+        <v>7.018418171942711</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.066709184613</v>
+        <v>174.4356956738489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.597442407844875</v>
+        <v>0.5848905084712104</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.912445337011</v>
+        <v>2794.330668163838</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67481049356551</v>
+        <v>15.57498200137509</v>
       </c>
       <c r="F28" t="n">
-        <v>6.849253810333533</v>
+        <v>6.857350661477225</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.0774715752917</v>
+        <v>189.498293489143</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5275188412189237</v>
+        <v>0.5158547530544805</v>
       </c>
       <c r="D29" t="n">
-        <v>2830.698874560731</v>
+        <v>2832.288461308728</v>
       </c>
       <c r="E29" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F29" t="n">
-        <v>6.983255135209355</v>
+        <v>6.99669145006937</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.7621200042391</v>
+        <v>126.00172806316</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2451124001292261</v>
+        <v>0.2394875199874613</v>
       </c>
       <c r="D30" t="n">
-        <v>2708.94914343648</v>
+        <v>2710.263346668297</v>
       </c>
       <c r="E30" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F30" t="n">
-        <v>7.042453491134591</v>
+        <v>7.056136064303055</v>
       </c>
       <c r="G30" t="n">
-        <v>99.69622639767523</v>
+        <v>99.80557570830197</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.8351260151805</v>
+        <v>110.1418040284904</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1474475969065661</v>
+        <v>0.1440630225922425</v>
       </c>
       <c r="D31" t="n">
-        <v>2637.115666257811</v>
+        <v>2638.455528952399</v>
       </c>
       <c r="E31" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F31" t="n">
-        <v>7.084931259419607</v>
+        <v>7.0986756828636</v>
       </c>
       <c r="G31" t="n">
-        <v>97.52120413986363</v>
+        <v>97.63055286806502</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.8351260151805</v>
+        <v>110.1418040284904</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1474475969065661</v>
+        <v>0.1440630225922425</v>
       </c>
       <c r="D32" t="n">
-        <v>2637.115666257811</v>
+        <v>2638.455528952399</v>
       </c>
       <c r="E32" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F32" t="n">
-        <v>7.084931259419607</v>
+        <v>7.0986756828636</v>
       </c>
       <c r="G32" t="n">
-        <v>97.52120413986363</v>
+        <v>97.63055286806502</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.32533740565464</v>
+        <v>44.84409299011003</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009756676989241694</v>
+        <v>0.009518340670574157</v>
       </c>
       <c r="D33" t="n">
-        <v>2303.590815163194</v>
+        <v>2303.599852340119</v>
       </c>
       <c r="E33" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F33" t="n">
-        <v>7.280122352886147</v>
+        <v>7.290200940113524</v>
       </c>
       <c r="G33" t="n">
-        <v>88.32474745731122</v>
+        <v>88.36649716308051</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.32533740596028</v>
+        <v>44.84409298885294</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009756676989241694</v>
+        <v>0.009518340670574157</v>
       </c>
       <c r="D34" t="n">
-        <v>189.7949605277025</v>
+        <v>187.7829693619023</v>
       </c>
       <c r="E34" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.51199207402885</v>
+        <v>45.18716261869298</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>191.1745466419049</v>
+        <v>189.8171483043822</v>
       </c>
       <c r="E35" t="n">
-        <v>75.82193034147562</v>
+        <v>74.09603977701835</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>525.5354210712899</v>
+        <v>498.4801380564361</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3524.678585395577</v>
+        <v>3464.888374349508</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57380562101118</v>
+        <v>7.232546659100655</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>540.5354210712899</v>
+        <v>513.4801380564361</v>
       </c>
       <c r="C42" t="n">
-        <v>3.698028476781792</v>
+        <v>6.834500995377648</v>
       </c>
       <c r="D42" t="n">
-        <v>3541.631562674369</v>
+        <v>3445.849832022522</v>
       </c>
       <c r="E42" t="n">
-        <v>41.10366230099895</v>
+        <v>8.530275867456588</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44192078016148</v>
+        <v>8.520310792011969</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5218,10 +4888,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07479220533334</v>
+        <v>3.389003907548475</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5236,16 +4906,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944169</v>
+        <v>0.05094889585944171</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -5255,16 +4925,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.76137602385535</v>
+        <v>90.48805194441371</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1331.021263486354</v>
+        <v>1315.824519305965</v>
       </c>
       <c r="E7" t="n">
-        <v>365775.9950500099</v>
+        <v>68582.99907187685</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5298,16 +4968,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.76137602385535</v>
+        <v>90.48805194441371</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1322.279758018715</v>
+        <v>1289.210973371659</v>
       </c>
       <c r="E8" t="n">
-        <v>362333.6697052593</v>
+        <v>67047.43941337649</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5316,22 +4986,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1697418120559119</v>
+        <v>0.171145411800612</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04471001688632922</v>
+        <v>0.03681069756027384</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09808797243258231</v>
+        <v>0.09889906459306411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6854394211412709</v>
+        <v>0.6911073386971667</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002020777483905787</v>
+        <v>0.002037487348883377</v>
       </c>
     </row>
     <row r="9">
@@ -5341,16 +5011,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.76137602385535</v>
+        <v>90.48805194441371</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1322.279758018715</v>
+        <v>1289.210973371659</v>
       </c>
       <c r="E9" t="n">
-        <v>24.08094928508745</v>
+        <v>3.574961070373367</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5359,22 +5029,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1697418120559119</v>
+        <v>0.171145411800612</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04471001688632922</v>
+        <v>0.03681069756027384</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09808797243258231</v>
+        <v>0.09889906459306411</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6854394211412709</v>
+        <v>0.6911073386971667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002020777483905787</v>
+        <v>0.002037487348883377</v>
       </c>
     </row>
     <row r="10">
@@ -5384,13 +5054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.76137602385535</v>
+        <v>90.48805194441371</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1322.279758018715</v>
+        <v>1289.210973371659</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -5402,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1697418120559119</v>
+        <v>0.171145411800612</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04471001688632922</v>
+        <v>0.03681069756027384</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09808797243258231</v>
+        <v>0.09889906459306411</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6854394211412709</v>
+        <v>0.6911073386971667</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002020777483905787</v>
+        <v>0.002037487348883377</v>
       </c>
     </row>
     <row r="11">
@@ -5436,7 +5106,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>947.8135240630417</v>
+        <v>142.6010394340409</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -5463,7 +5133,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>947.8135240630417</v>
+        <v>142.6010394340409</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -5487,25 +5157,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1190.276118433534</v>
+        <v>1189.331238643722</v>
       </c>
       <c r="E13" t="n">
-        <v>971.8944770032679</v>
+        <v>146.176003923385</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7479613035403302</v>
+        <v>0.7483506297480448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1675820382280998</v>
+        <v>0.1676750524945526</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01688966656712013</v>
+        <v>0.01689556649093183</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009589247481286286</v>
+        <v>0.009594238842923651</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05797774418316339</v>
+        <v>0.05748451242354716</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -5524,31 +5194,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.5137564416856</v>
+        <v>315.4809781206837</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>693.9922955572322</v>
+        <v>693.1569029181148</v>
       </c>
       <c r="E14" t="n">
-        <v>971.8944770032679</v>
+        <v>146.176003923385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7479613035403302</v>
+        <v>0.7483506297480448</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1675820382280998</v>
+        <v>0.1676750524945526</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01688966656712013</v>
+        <v>0.01689556649093183</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009589247481286286</v>
+        <v>0.009594238842923651</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05797774418316339</v>
+        <v>0.05748451242354716</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -5573,25 +5243,25 @@
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>433.6889869928788</v>
+        <v>432.9611169876483</v>
       </c>
       <c r="E15" t="n">
-        <v>971.8944770032679</v>
+        <v>146.176003923385</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7479613035403302</v>
+        <v>0.7483506297480448</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1675820382280998</v>
+        <v>0.1676750524945526</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01688966656712013</v>
+        <v>0.01689556649093183</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009589247481286286</v>
+        <v>0.009594238842923651</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05797774418316339</v>
+        <v>0.05748451242354716</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>

--- a/resdataTemp-5.xlsx
+++ b/resdataTemp-5.xlsx
@@ -525,7 +525,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>459.9372369783366</v>
+        <v>461.295019308974</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>9.728971139461088</v>
+        <v>9.729642075702955</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.5487839648041</v>
+        <v>539.5315298776</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>960.6956251426753</v>
+        <v>960.6616555737835</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6662081177977</v>
+        <v>471.0246613846769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7788161088095436</v>
+        <v>0.778820284286302</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1212883299557131</v>
+        <v>0.1212951160814641</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03138158044379127</v>
+        <v>0.03137797424315356</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06196855025673063</v>
+        <v>0.06196132269047155</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006545430534221564</v>
+        <v>0.006545302698608688</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.1882142529383</v>
+        <v>465.2038577482139</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>875.6470249864499</v>
+        <v>875.6510925171606</v>
       </c>
       <c r="E6" t="n">
-        <v>469.6662081177977</v>
+        <v>471.0246613846769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7788161088095436</v>
+        <v>0.778820284286302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1212883299557131</v>
+        <v>0.1212951160814641</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03138158044379127</v>
+        <v>0.03137797424315356</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06196855025673063</v>
+        <v>0.06196132269047155</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006545430534221564</v>
+        <v>0.006545302698608688</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.6645943341945</v>
+        <v>295.8619714174952</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>687.2267090451861</v>
+        <v>687.4289341591904</v>
       </c>
       <c r="E7" t="n">
-        <v>469.6662081177977</v>
+        <v>471.0246613846769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7788161088095436</v>
+        <v>0.778820284286302</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1212883299557131</v>
+        <v>0.1212951160814641</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03138158044379127</v>
+        <v>0.03137797424315356</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06196855025673063</v>
+        <v>0.06196132269047155</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006545430534221564</v>
+        <v>0.006545302698608688</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.8530357686964</v>
+        <v>227.9068103690597</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.8901169609903</v>
+        <v>613.9353410633379</v>
       </c>
       <c r="E8" t="n">
-        <v>469.6662081177977</v>
+        <v>471.0246613846769</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7788161088095436</v>
+        <v>0.778820284286302</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1212883299557131</v>
+        <v>0.1212951160814641</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03138158044379127</v>
+        <v>0.03137797424315356</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06196855025673063</v>
+        <v>0.06196132269047155</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006545430534221564</v>
+        <v>0.006545302698608688</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.9319507524272</v>
+        <v>226.9858326720354</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.9011908107477</v>
+        <v>612.9465235315358</v>
       </c>
       <c r="E9" t="n">
-        <v>469.6662081177977</v>
+        <v>471.0246613846769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7788161088095436</v>
+        <v>0.778820284286302</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1212883299557131</v>
+        <v>0.1212951160814641</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03138158044379127</v>
+        <v>0.03137797424315356</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06196855025673063</v>
+        <v>0.06196132269047155</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006545430534221564</v>
+        <v>0.006545302698608688</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.3824056686158</v>
+        <v>167.4826478496217</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.3342465831009</v>
+        <v>549.4284258865629</v>
       </c>
       <c r="E10" t="n">
-        <v>469.6662081177977</v>
+        <v>471.0246613846769</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7788161088095436</v>
+        <v>0.778820284286302</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1212883299557131</v>
+        <v>0.1212951160814641</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03138158044379127</v>
+        <v>0.03137797424315356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06196855025673063</v>
+        <v>0.06196132269047155</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006545430534221564</v>
+        <v>0.006545302698608688</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.2861330403985</v>
+        <v>102.3514140677272</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>480.5654182402078</v>
+        <v>480.6220843490719</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6662081177977</v>
+        <v>471.0246613846769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7788161088095436</v>
+        <v>0.778820284286302</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1212883299557131</v>
+        <v>0.1212951160814641</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03138158044379127</v>
+        <v>0.03137797424315356</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06196855025673063</v>
+        <v>0.06196132269047155</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006545430534221564</v>
+        <v>0.006545302698608688</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.222179724202904</v>
+        <v>9.222815710733986</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5067914152581894</v>
+        <v>0.5068263649689748</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6565897912065939</v>
+        <v>0.6577833722439363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6873274159883521</v>
+        <v>0.6881569217375859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.955279501345718</v>
+        <v>0.9558624660535902</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.64329888578828</v>
+        <v>72.79602894658913</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.46956668599379</v>
+        <v>33.55170425863415</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492847756267711</v>
+        <v>0.8492865994878522</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.04157774819258</v>
+        <v>9.058537838831374</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372074936925521</v>
+        <v>0.8372073382632276</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.320674917778075</v>
+        <v>5.331978427865185</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8149523368082944</v>
+        <v>0.8149523999308741</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.81147953382384</v>
+        <v>24.85380842125841</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.8461088398318973</v>
+        <v>0.8457951620960847</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1507246038355689</v>
+        <v>0.1459986534128131</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1559109150425307</v>
+        <v>0.1509747996517204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9667354193543981</v>
+        <v>0.9670398884423977</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3409489975263966</v>
+        <v>0.352718413974884</v>
       </c>
     </row>
     <row r="13">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42021.74855881947</v>
+        <v>42018.68855084182</v>
       </c>
       <c r="C2" t="n">
-        <v>42446.21066547421</v>
+        <v>42443.11974832507</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91538.38547590694</v>
+        <v>91470.66737874263</v>
       </c>
       <c r="C3" t="n">
-        <v>92463.01563222923</v>
+        <v>92394.61351388144</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39549.22233440456</v>
+        <v>39574.67197375654</v>
       </c>
       <c r="C4" t="n">
-        <v>39948.70942869148</v>
+        <v>39974.41613510761</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.5099424802538</v>
+        <v>515.5411935751498</v>
       </c>
       <c r="C5" t="n">
-        <v>520.717113616418</v>
+        <v>520.7486803789392</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32968.39996303276</v>
+        <v>32976.96568165536</v>
       </c>
       <c r="C6" t="n">
-        <v>33301.4141040735</v>
+        <v>33310.06634510642</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39041.67692616293</v>
+        <v>39057.74029670042</v>
       </c>
       <c r="C7" t="n">
-        <v>39436.03729915448</v>
+        <v>39452.26292596001</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.12724023594</v>
+        <v>15028.57948474951</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.4809031974881</v>
+        <v>513.3797207878683</v>
       </c>
       <c r="C3" t="n">
-        <v>6.834641968103768</v>
+        <v>6.853104611318806</v>
       </c>
       <c r="D3" t="n">
-        <v>3445.852889091203</v>
+        <v>3445.401956412414</v>
       </c>
       <c r="E3" t="n">
-        <v>58.52105777564326</v>
+        <v>58.66900986455394</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.7051683103637</v>
+        <v>287.8892393335047</v>
       </c>
       <c r="C4" t="n">
-        <v>7.196170640494726</v>
+        <v>7.215639043638645</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.042500237948</v>
+        <v>2769.781676216317</v>
       </c>
       <c r="E4" t="n">
-        <v>58.52105777564326</v>
+        <v>58.66900986455394</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.8355244566806</v>
+        <v>287.0043738410288</v>
       </c>
       <c r="C5" t="n">
-        <v>7.196170640494726</v>
+        <v>7.215639043638645</v>
       </c>
       <c r="D5" t="n">
-        <v>1272.96199226535</v>
+        <v>1273.862835559796</v>
       </c>
       <c r="E5" t="n">
-        <v>58.52105777564326</v>
+        <v>58.66900986455394</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.5246288078494</v>
+        <v>162.4100176334834</v>
       </c>
       <c r="C6" t="n">
-        <v>7.196170640494726</v>
+        <v>7.215639043638645</v>
       </c>
       <c r="D6" t="n">
-        <v>690.2375640785581</v>
+        <v>689.7538751853328</v>
       </c>
       <c r="E6" t="n">
-        <v>58.52105777564326</v>
+        <v>58.66900986455394</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.6596768792896</v>
+        <v>156.7476862179794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5674592450563483</v>
+        <v>0.5687529027562682</v>
       </c>
       <c r="D7" t="n">
-        <v>660.9787403971466</v>
+        <v>661.3602018078877</v>
       </c>
       <c r="E7" t="n">
-        <v>58.52105777564326</v>
+        <v>58.66900986455394</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.0105596711602</v>
+        <v>170.1089520113703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.561040268633596</v>
+        <v>0.5623390618124219</v>
       </c>
       <c r="D8" t="n">
-        <v>2785.827358255844</v>
+        <v>2785.960883285582</v>
       </c>
       <c r="E8" t="n">
-        <v>14.31482370761441</v>
+        <v>14.34055009012801</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.6596767594861</v>
+        <v>156.7476860980032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5674592450563483</v>
+        <v>0.5687529027562682</v>
       </c>
       <c r="D9" t="n">
-        <v>2753.70762363876</v>
+        <v>2753.807480218095</v>
       </c>
       <c r="E9" t="n">
-        <v>14.31482370761441</v>
+        <v>14.34055009012801</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.6596768792896</v>
+        <v>156.7476862179794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5674592450563483</v>
+        <v>0.5687529027562682</v>
       </c>
       <c r="D10" t="n">
-        <v>666.4946493230619</v>
+        <v>666.6470751535242</v>
       </c>
       <c r="E10" t="n">
-        <v>72.83588148325768</v>
+        <v>73.00955995468195</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.6596768792896</v>
+        <v>156.7476862179794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5674592450563483</v>
+        <v>0.5687529027562682</v>
       </c>
       <c r="D11" t="n">
-        <v>666.4946493230619</v>
+        <v>666.6470751535242</v>
       </c>
       <c r="E11" t="n">
-        <v>77.07620174336481</v>
+        <v>77.31309794550879</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1690,13 +1690,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5674592450563483</v>
+        <v>0.5687529027562682</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6401264895223</v>
+        <v>251.6412127679405</v>
       </c>
       <c r="E12" t="n">
-        <v>77.07641359918524</v>
+        <v>77.31279256092004</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.20001684817163</v>
+        <v>54.12601176678584</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>227.4903189042822</v>
+        <v>227.1808804469857</v>
       </c>
       <c r="E13" t="n">
-        <v>72.83783542146344</v>
+        <v>73.01227376000108</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.70635482775634</v>
+        <v>53.62357509176695</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.4261996289316</v>
+        <v>225.0800860444463</v>
       </c>
       <c r="E14" t="n">
-        <v>64.30755955400686</v>
+        <v>64.47724851074113</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.26951781442835</v>
+        <v>87.19202014905369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06321138780052762</v>
+        <v>0.06302232452176483</v>
       </c>
       <c r="D15" t="n">
-        <v>365.5549641777845</v>
+        <v>365.229112685088</v>
       </c>
       <c r="E15" t="n">
-        <v>59.86760499156123</v>
+        <v>59.87380908308967</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.98984777056188</v>
+        <v>55.97559144914788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06321137138283348</v>
+        <v>0.06302231870653274</v>
       </c>
       <c r="D16" t="n">
-        <v>234.437395637435</v>
+        <v>234.3775952037194</v>
       </c>
       <c r="E16" t="n">
-        <v>59.86818612904113</v>
+        <v>59.87319003332961</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>79.06220378905317</v>
+        <v>79.05497200114056</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.37578976501354</v>
+        <v>71.33225973348544</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>298.8504317461117</v>
+        <v>298.6681715041036</v>
       </c>
       <c r="E19" t="n">
-        <v>79.06220378905317</v>
+        <v>79.05497200114056</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.1703569949166</v>
+        <v>107.1860710680374</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1302695613978712</v>
+        <v>0.1303528093857567</v>
       </c>
       <c r="D20" t="n">
-        <v>2662.695851980795</v>
+        <v>2662.319289101875</v>
       </c>
       <c r="E20" t="n">
-        <v>19.87874082110242</v>
+        <v>19.96727443993614</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.6751439411506</v>
+        <v>105.6936754408774</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1237560833279777</v>
+        <v>0.1238351689164688</v>
       </c>
       <c r="D21" t="n">
-        <v>443.1265360515708</v>
+        <v>443.2048450288806</v>
       </c>
       <c r="E21" t="n">
-        <v>19.87874082110242</v>
+        <v>19.96727443993614</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.70018272563635</v>
+        <v>84.62804691499151</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>354.6396650722394</v>
+        <v>354.3376324330695</v>
       </c>
       <c r="E22" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.8572666863368</v>
+        <v>50.85178316849217</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.60252403137673</v>
+        <v>88.52436764479194</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06653830294792382</v>
+        <v>0.06633928897027877</v>
       </c>
       <c r="D25" t="n">
-        <v>2573.4407480937</v>
+        <v>2572.649800717258</v>
       </c>
       <c r="E25" t="n">
-        <v>39.98875773829439</v>
+        <v>39.90655706730882</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>510.6876535719464</v>
+        <v>510.5787003415361</v>
       </c>
       <c r="C26" t="n">
-        <v>6.236149326016002</v>
+        <v>6.253263407918134</v>
       </c>
       <c r="D26" t="n">
-        <v>3445.852889091203</v>
+        <v>3445.401956412414</v>
       </c>
       <c r="E26" t="n">
-        <v>49.99230441671617</v>
+        <v>50.13724481745812</v>
       </c>
       <c r="F26" t="n">
-        <v>6.894845793734702</v>
+        <v>6.893064278794827</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.0747848410047</v>
+        <v>195.9417169652665</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4184036704596389</v>
+        <v>0.419382698011991</v>
       </c>
       <c r="D27" t="n">
-        <v>2851.723683395106</v>
+        <v>2851.391312442171</v>
       </c>
       <c r="E27" t="n">
-        <v>49.99230441671617</v>
+        <v>50.13724481745812</v>
       </c>
       <c r="F27" t="n">
-        <v>7.132466737536994</v>
+        <v>7.13070456720922</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.32202151113</v>
+        <v>167.4196940990627</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4767201075376427</v>
+        <v>0.4779089342645851</v>
       </c>
       <c r="D28" t="n">
-        <v>2785.827358255844</v>
+        <v>2785.960883285582</v>
       </c>
       <c r="E28" t="n">
-        <v>14.31482370761441</v>
+        <v>14.34055009012801</v>
       </c>
       <c r="F28" t="n">
-        <v>6.928986734623781</v>
+        <v>6.928181009133629</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.152685184594</v>
+        <v>189.076733726713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4184036704596389</v>
+        <v>0.419382698011991</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.055103023667</v>
+        <v>2836.838886322706</v>
       </c>
       <c r="E29" t="n">
-        <v>64.30712812433059</v>
+        <v>64.47779490758613</v>
       </c>
       <c r="F29" t="n">
-        <v>7.100972287370246</v>
+        <v>7.099452507577777</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.1697818645459</v>
+        <v>107.186054426988</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1302699444560139</v>
+        <v>0.1303423868227969</v>
       </c>
       <c r="D30" t="n">
-        <v>2662.693820052593</v>
+        <v>2662.319230488871</v>
       </c>
       <c r="E30" t="n">
-        <v>64.30712812433059</v>
+        <v>64.47779490758613</v>
       </c>
       <c r="F30" t="n">
-        <v>7.2069466390869</v>
+        <v>7.205712568927384</v>
       </c>
       <c r="G30" t="n">
-        <v>98.92534257838935</v>
+        <v>98.90746066125715</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.60169481425095</v>
+        <v>88.52546936516075</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0665361888537814</v>
+        <v>0.06634209088626788</v>
       </c>
       <c r="D31" t="n">
-        <v>2573.437398727923</v>
+        <v>2572.654911222727</v>
       </c>
       <c r="E31" t="n">
-        <v>44.42828087106375</v>
+        <v>44.51054289180529</v>
       </c>
       <c r="F31" t="n">
-        <v>7.264468889121327</v>
+        <v>7.26358907869598</v>
       </c>
       <c r="G31" t="n">
-        <v>96.33390174342806</v>
+        <v>96.30544387357773</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.50034642479386</v>
+        <v>43.14351864899635</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008427862709745177</v>
+        <v>0.008715812177485072</v>
       </c>
       <c r="D32" t="n">
-        <v>2573.437398727923</v>
+        <v>2572.654911222727</v>
       </c>
       <c r="E32" t="n">
-        <v>4.439373424965723</v>
+        <v>4.60405847741152</v>
       </c>
       <c r="F32" t="n">
-        <v>8.194585427426752</v>
+        <v>8.176687373643173</v>
       </c>
       <c r="G32" t="n">
-        <v>99.81094221428904</v>
+        <v>99.73039666152691</v>
       </c>
     </row>
     <row r="33">
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.37917946006155</v>
+        <v>35.27699039840604</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002744348222505503</v>
+        <v>0.002755024702032894</v>
       </c>
       <c r="D33" t="n">
-        <v>2568.265590651446</v>
+        <v>2566.180758460542</v>
       </c>
       <c r="E33" t="n">
-        <v>4.439373424965723</v>
+        <v>4.60405847741152</v>
       </c>
       <c r="F33" t="n">
-        <v>8.694722023818658</v>
+        <v>8.68618452138454</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.60375142457684</v>
+        <v>22.66771696298065</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002744348222505503</v>
+        <v>0.002755024702032894</v>
       </c>
       <c r="D34" t="n">
-        <v>94.80736419233713</v>
+        <v>95.0749245257838</v>
       </c>
       <c r="E34" t="n">
-        <v>4.439373424965723</v>
+        <v>4.60405847741152</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.62499744582487</v>
+        <v>24.68901036949541</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.9036539362312</v>
+        <v>104.1712106552811</v>
       </c>
       <c r="E35" t="n">
-        <v>4.439373424965723</v>
+        <v>4.60405847741152</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.4801380564361</v>
+        <v>498.3734139059322</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3464.888374349508</v>
+        <v>3464.652972062423</v>
       </c>
       <c r="E40" t="n">
-        <v>7.232546659100655</v>
+        <v>7.232283059821067</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2337,7 +2337,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>8.530275867456588</v>
+        <v>8.535025249259943</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.4801380564361</v>
+        <v>513.3734139059322</v>
       </c>
       <c r="C42" t="n">
-        <v>6.834500995377648</v>
+        <v>6.854087944843545</v>
       </c>
       <c r="D42" t="n">
-        <v>3445.849832022522</v>
+        <v>3445.375181244754</v>
       </c>
       <c r="E42" t="n">
-        <v>8.530275867456588</v>
+        <v>8.535025249259943</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389003907548475</v>
+        <v>3.388880391029237</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>0.05094889585944171</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173056</v>
@@ -2878,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.712257311107243</v>
+        <v>1.66582870347225</v>
       </c>
       <c r="C2" t="n">
-        <v>1.896740308148699</v>
+        <v>1.842930827850662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9027368183989722</v>
+        <v>0.9039019144386667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2483461684672657</v>
+        <v>0.2566374345167812</v>
       </c>
     </row>
     <row r="3">
@@ -2920,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>132.9810397327121</v>
+        <v>133.638104988748</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.92038591909897</v>
+        <v>31.97867299681755</v>
       </c>
     </row>
     <row r="6">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.232043471238909</v>
+        <v>6.233437618851669</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.90303042145676</v>
+        <v>45.05551456357762</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.70188811402103</v>
+        <v>29.78205708091205</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8491129640198014</v>
+        <v>0.8491105534943888</v>
       </c>
     </row>
     <row r="9">
@@ -2975,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.21267336394356</v>
+        <v>11.25264257619655</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8122466984520574</v>
+        <v>0.8119678735406382</v>
       </c>
     </row>
     <row r="10">
@@ -2990,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.965509356158427</v>
+        <v>3.991007528560228</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8109413983031446</v>
+        <v>0.8107313451146597</v>
       </c>
     </row>
     <row r="11">
@@ -3005,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02295958733373593</v>
+        <v>0.02980737790879499</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03365358816944654</v>
+        <v>0.04105698141116251</v>
       </c>
     </row>
     <row r="12">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04038182695483143</v>
+        <v>0.041879833267473</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04525172060468462</v>
+        <v>0.04692685911485776</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923821329934351</v>
+        <v>0.8924491018026222</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39545.00900569013</v>
+        <v>39641.65096108786</v>
       </c>
       <c r="C2" t="n">
-        <v>39944.45354110115</v>
+        <v>40042.07167786653</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87609.70876728588</v>
+        <v>87770.70562159939</v>
       </c>
       <c r="C3" t="n">
-        <v>88494.65532049078</v>
+        <v>88657.27840565596</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34099.28192926127</v>
+        <v>34271.12185389797</v>
       </c>
       <c r="C4" t="n">
-        <v>34443.71912046593</v>
+        <v>34617.29480191714</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.8205431420461</v>
+        <v>461.0998686574123</v>
       </c>
       <c r="C5" t="n">
-        <v>464.4651950929759</v>
+        <v>465.7574430882953</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29556.69320046405</v>
+        <v>29619.40453067201</v>
       </c>
       <c r="C6" t="n">
-        <v>29855.24565703439</v>
+        <v>29918.59043502223</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31975.41089606524</v>
+        <v>32085.38888657697</v>
       </c>
       <c r="C7" t="n">
-        <v>32298.39484451035</v>
+        <v>32409.48372381512</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.68102073417036</v>
+        <v>43.86657044724748</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88.93431692799713</v>
+        <v>88.75104552176681</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.771271613175336</v>
+        <v>7.756152199764405</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24590.6264901207</v>
+        <v>24588.02775776876</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2730.129524204976</v>
+        <v>2743.888413802132</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16151.33817345968</v>
+        <v>16152.45201355438</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5604.165420009971</v>
+        <v>5603.96116913721</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4048.755865352262</v>
+        <v>4048.608303341308</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15029.12724023594</v>
+        <v>15028.57948474951</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27412.17804980315</v>
+        <v>27425.03737103016</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3757,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.1970806426035</v>
+        <v>505.1636668522368</v>
       </c>
       <c r="C3" t="n">
-        <v>7.831782345456009</v>
+        <v>7.84785686203502</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.314144467407</v>
+        <v>3414.042910194619</v>
       </c>
       <c r="E3" t="n">
-        <v>63.80150997856758</v>
+        <v>63.79245681735797</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -3778,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.7517364421967</v>
+        <v>296.8829691380598</v>
       </c>
       <c r="C4" t="n">
-        <v>8.201751561294932</v>
+        <v>8.217089202827868</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.647834274574</v>
+        <v>2755.414132789619</v>
       </c>
       <c r="E4" t="n">
-        <v>63.80150997856758</v>
+        <v>63.79245681735797</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -3799,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.6834793810438</v>
+        <v>295.8242022294604</v>
       </c>
       <c r="C5" t="n">
-        <v>8.201751561294932</v>
+        <v>8.217089202827868</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.899328819964</v>
+        <v>1321.675190466346</v>
       </c>
       <c r="E5" t="n">
-        <v>63.80150997856758</v>
+        <v>63.79245681735797</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -3820,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.8845952300926</v>
+        <v>164.9520608359864</v>
       </c>
       <c r="C6" t="n">
-        <v>8.201751561294932</v>
+        <v>8.217089202827868</v>
       </c>
       <c r="D6" t="n">
-        <v>701.0204769691773</v>
+        <v>701.3210144587257</v>
       </c>
       <c r="E6" t="n">
-        <v>63.80150997856758</v>
+        <v>63.79245681735797</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.5069837996328</v>
+        <v>163.5713477003859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6753713508090345</v>
+        <v>0.6764578587456447</v>
       </c>
       <c r="D7" t="n">
-        <v>690.7293444955546</v>
+        <v>691.0097111313243</v>
       </c>
       <c r="E7" t="n">
-        <v>63.80150997856758</v>
+        <v>63.79245681735797</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -3862,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.956099122536</v>
+        <v>177.0106120206889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6692004725514031</v>
+        <v>0.6702749343790357</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.330668163838</v>
+        <v>2794.382959426466</v>
       </c>
       <c r="E8" t="n">
-        <v>15.57498200137509</v>
+        <v>15.58226887273289</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -3883,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.5069836659233</v>
+        <v>163.5713475665414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6753713508090345</v>
+        <v>0.6764578587456447</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.234599023061</v>
+        <v>2761.302979453008</v>
       </c>
       <c r="E9" t="n">
-        <v>15.57498200137509</v>
+        <v>15.58226887273289</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -3904,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.4235338323205</v>
+        <v>161.4882316499067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6753713508090345</v>
+        <v>0.6764578587456447</v>
       </c>
       <c r="D10" t="n">
-        <v>681.6811422886559</v>
+        <v>681.9625378565788</v>
       </c>
       <c r="E10" t="n">
-        <v>79.37649197994267</v>
+        <v>79.37472569009087</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.4235338323205</v>
+        <v>161.4882316499067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6753713508090345</v>
+        <v>0.6764578587456447</v>
       </c>
       <c r="D11" t="n">
-        <v>681.6811422886559</v>
+        <v>681.9625378565788</v>
       </c>
       <c r="E11" t="n">
-        <v>90.80507074334241</v>
+        <v>90.78320060022864</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -3949,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6753713508090345</v>
+        <v>0.6764578587456447</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7307386142097</v>
+        <v>251.7316509259618</v>
       </c>
       <c r="E12" t="n">
-        <v>90.80672181016996</v>
+        <v>90.77630367284154</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.18716261869298</v>
+        <v>45.21446586580339</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>189.8171483043822</v>
+        <v>189.9312423452818</v>
       </c>
       <c r="E13" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -3988,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.18716261869298</v>
+        <v>45.21446586580339</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>189.8171483043822</v>
+        <v>189.9312423452818</v>
       </c>
       <c r="E14" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87.26951781442835</v>
+        <v>87.19202014905369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06321138780052762</v>
+        <v>0.06302232452176483</v>
       </c>
       <c r="D15" t="n">
-        <v>365.5549641777845</v>
+        <v>365.229112685088</v>
       </c>
       <c r="E15" t="n">
-        <v>59.86760499156123</v>
+        <v>59.87380908308967</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4030,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.98984777056188</v>
+        <v>55.97559144914788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06321137138283348</v>
+        <v>0.06302231870653274</v>
       </c>
       <c r="D16" t="n">
-        <v>234.437395637435</v>
+        <v>234.3775952037194</v>
       </c>
       <c r="E16" t="n">
-        <v>59.86818612904113</v>
+        <v>59.87319003332961</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4060,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>79.06220378905317</v>
+        <v>79.05497200114056</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4093,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.37578976501354</v>
+        <v>71.33225973348544</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>298.8504317461117</v>
+        <v>298.6681715041036</v>
       </c>
       <c r="E19" t="n">
-        <v>79.06220378905317</v>
+        <v>79.05497200114056</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4114,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>107.1703569949166</v>
+        <v>107.1860710680374</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1302695613978712</v>
+        <v>0.1303528093857567</v>
       </c>
       <c r="D20" t="n">
-        <v>2662.695851980795</v>
+        <v>2662.319289101875</v>
       </c>
       <c r="E20" t="n">
-        <v>19.87874082110242</v>
+        <v>19.96727443993614</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4135,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.6751439411506</v>
+        <v>105.6936754408774</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1237560833279777</v>
+        <v>0.1238351689164688</v>
       </c>
       <c r="D21" t="n">
-        <v>443.1265360515708</v>
+        <v>443.2048450288806</v>
       </c>
       <c r="E21" t="n">
-        <v>19.87874082110242</v>
+        <v>19.96727443993614</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4156,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.70018272563635</v>
+        <v>84.62804691499151</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>354.6396650722394</v>
+        <v>354.3376324330695</v>
       </c>
       <c r="E22" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4186,7 +4186,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.8572666863368</v>
+        <v>50.85178316849217</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4207,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>627.6226906033884</v>
+        <v>627.5652822088578</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4219,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.60252403137673</v>
+        <v>88.52436764479194</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06653830294792382</v>
+        <v>0.06633928897027877</v>
       </c>
       <c r="D25" t="n">
-        <v>2573.4407480937</v>
+        <v>2572.649800717258</v>
       </c>
       <c r="E25" t="n">
-        <v>39.98875773829439</v>
+        <v>39.90655706730882</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4240,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.2882808812379</v>
+        <v>502.2614830095403</v>
       </c>
       <c r="C26" t="n">
-        <v>7.224282077397519</v>
+        <v>7.24182529811326</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.314144467407</v>
+        <v>3414.042910194619</v>
       </c>
       <c r="E26" t="n">
-        <v>58.52105777564326</v>
+        <v>58.66900986455394</v>
       </c>
       <c r="F26" t="n">
-        <v>6.789980921581788</v>
+        <v>6.788575001284458</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4265,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.148399337788</v>
+        <v>194.0691608353692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5158547530544805</v>
+        <v>0.5169019698676629</v>
       </c>
       <c r="D27" t="n">
-        <v>2842.390670112096</v>
+        <v>2842.161701766299</v>
       </c>
       <c r="E27" t="n">
-        <v>58.52105777564326</v>
+        <v>58.66900986455394</v>
       </c>
       <c r="F27" t="n">
-        <v>7.018418171942711</v>
+        <v>7.01701961859804</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4290,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.4356956738489</v>
+        <v>174.4920306906316</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5848905084712104</v>
+        <v>0.5860023381806008</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.330668163838</v>
+        <v>2794.382959426466</v>
       </c>
       <c r="E28" t="n">
-        <v>15.57498200137509</v>
+        <v>15.58226887273289</v>
       </c>
       <c r="F28" t="n">
-        <v>6.857350661477225</v>
+        <v>6.856626851793835</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4315,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.498293489143</v>
+        <v>189.4553858802639</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5158547530544805</v>
+        <v>0.5169019698676629</v>
       </c>
       <c r="D29" t="n">
-        <v>2832.288461308728</v>
+        <v>2832.134922130968</v>
       </c>
       <c r="E29" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F29" t="n">
-        <v>6.99669145006937</v>
+        <v>6.995452292681767</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4340,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.00172806316</v>
+        <v>126.0706557576389</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2394875199874613</v>
+        <v>0.2399930324433871</v>
       </c>
       <c r="D30" t="n">
-        <v>2710.263346668297</v>
+        <v>2710.136513579891</v>
       </c>
       <c r="E30" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F30" t="n">
-        <v>7.056136064303055</v>
+        <v>7.054873703590806</v>
       </c>
       <c r="G30" t="n">
-        <v>99.80557570830197</v>
+        <v>99.79531154678425</v>
       </c>
     </row>
     <row r="31">
@@ -4365,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.1418040284904</v>
+        <v>110.2046576694125</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1440630225922425</v>
+        <v>0.1443671958319233</v>
       </c>
       <c r="D31" t="n">
-        <v>2638.455528952399</v>
+        <v>2638.32659301636</v>
       </c>
       <c r="E31" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F31" t="n">
-        <v>7.0986756828636</v>
+        <v>7.097407575226193</v>
       </c>
       <c r="G31" t="n">
-        <v>97.63055286806502</v>
+        <v>97.62030685800171</v>
       </c>
     </row>
     <row r="32">
@@ -4390,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.1418040284904</v>
+        <v>110.2046576694125</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1440630225922425</v>
+        <v>0.1443671958319233</v>
       </c>
       <c r="D32" t="n">
-        <v>2638.455528952399</v>
+        <v>2638.32659301636</v>
       </c>
       <c r="E32" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F32" t="n">
-        <v>7.0986756828636</v>
+        <v>7.097407575226193</v>
       </c>
       <c r="G32" t="n">
-        <v>97.63055286806502</v>
+        <v>97.62030685800171</v>
       </c>
     </row>
     <row r="33">
@@ -4415,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.84409299011003</v>
+        <v>44.88762451954318</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009518340670574157</v>
+        <v>0.009539691537736072</v>
       </c>
       <c r="D33" t="n">
-        <v>2303.599852340119</v>
+        <v>2303.600931129846</v>
       </c>
       <c r="E33" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F33" t="n">
-        <v>7.290200940113524</v>
+        <v>7.289293584387416</v>
       </c>
       <c r="G33" t="n">
-        <v>88.36649716308051</v>
+        <v>88.36280078050136</v>
       </c>
     </row>
     <row r="34">
@@ -4440,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.84409298885294</v>
+        <v>44.88762451835038</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009518340670574157</v>
+        <v>0.009539691537736072</v>
       </c>
       <c r="D34" t="n">
-        <v>187.7829693619023</v>
+        <v>187.9649643781457</v>
       </c>
       <c r="E34" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.18716261869298</v>
+        <v>45.21446586580339</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>189.8171483043822</v>
+        <v>189.9312423452818</v>
       </c>
       <c r="E35" t="n">
-        <v>74.09603977701835</v>
+        <v>74.25127873728684</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4566,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.4801380564361</v>
+        <v>498.3734139059322</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3464.888374349508</v>
+        <v>3464.652972062423</v>
       </c>
       <c r="E40" t="n">
-        <v>7.232546659100655</v>
+        <v>7.232283059821067</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4608,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>513.4801380564361</v>
+        <v>513.3734139059322</v>
       </c>
       <c r="C42" t="n">
-        <v>6.834500995377648</v>
+        <v>6.854087944843545</v>
       </c>
       <c r="D42" t="n">
-        <v>3445.849832022522</v>
+        <v>3445.375181244754</v>
       </c>
       <c r="E42" t="n">
-        <v>8.530275867456588</v>
+        <v>8.535025249259943</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -4719,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.520310792011969</v>
+        <v>8.520000258545336</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>3.389003907548475</v>
+        <v>3.388880391029237</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>0.05094889585944171</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173056</v>

--- a/resdataTemp-5.xlsx
+++ b/resdataTemp-5.xlsx
@@ -527,7 +527,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>442.9323093094343</v>
+        <v>442.8550008693169</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.62893558175957</v>
+        <v>13.62882643471572</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>542.2491582011405</v>
+        <v>542.2505823352293</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>966.0176572152545</v>
+        <v>966.0204668979961</v>
       </c>
       <c r="E5" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.2365635784892</v>
+        <v>466.2328538418922</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>878.9786329279481</v>
+        <v>878.9755534823565</v>
       </c>
       <c r="E6" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.324991585776</v>
+        <v>291.3182575897686</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.5074860141347</v>
+        <v>684.5012106730196</v>
       </c>
       <c r="E7" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.4469083692567</v>
+        <v>224.508616534905</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.192627270902</v>
+        <v>612.2599189040561</v>
       </c>
       <c r="E8" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.5272316048067</v>
+        <v>223.5890387401669</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.2052444521776</v>
+        <v>611.2726297836584</v>
       </c>
       <c r="E9" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.6166718915316</v>
+        <v>164.7347676433306</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.3161844896405</v>
+        <v>548.4426056389412</v>
       </c>
       <c r="E10" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.9578688212826</v>
+        <v>101.0356211087404</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.0454682545474</v>
+        <v>481.1282596313072</v>
       </c>
       <c r="E11" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.91899128724652</v>
+        <v>12.91888782577662</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7099442945130603</v>
+        <v>0.7099386089391153</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762721576400581</v>
+        <v>4.762705246422635</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944168</v>
+        <v>0.05094889585944169</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.650013827519288</v>
+        <v>0.6499896367282884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6822796572556169</v>
+        <v>0.6822702842408921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9527087911925821</v>
+        <v>0.9526864231694924</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.14814279313672</v>
+        <v>55.1345308840027</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.68058125589083</v>
+        <v>33.67539933539022</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849105045656276</v>
+        <v>0.8491050698635035</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.28247907540984</v>
+        <v>13.27978807038683</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7966981514824153</v>
+        <v>0.796720219124879</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.675109868514665</v>
+        <v>5.67310487256274</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7804311719705975</v>
+        <v>0.7804935859485632</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.509972593321386</v>
+        <v>2.506238605662912</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4939254755509718</v>
+        <v>0.4936119288430634</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1573791263503266</v>
+        <v>0.1572745888586515</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1750780273684518</v>
+        <v>0.1749631040769875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8989084964906653</v>
+        <v>0.8989014551859308</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42053.17559792689</v>
+        <v>42052.47886427086</v>
       </c>
       <c r="C2" t="n">
-        <v>42477.9551494211</v>
+        <v>42477.25137805138</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91949.86765566196</v>
+        <v>91955.14611819477</v>
       </c>
       <c r="C3" t="n">
-        <v>92878.65419763835</v>
+        <v>92883.98597797452</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39859.99104661128</v>
+        <v>39862.18639366438</v>
       </c>
       <c r="C4" t="n">
-        <v>40262.61721879927</v>
+        <v>40264.83474107513</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>516.0105111334809</v>
+        <v>516.0022795298049</v>
       </c>
       <c r="C5" t="n">
-        <v>521.2227385186676</v>
+        <v>521.2144237674797</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33275.79890205683</v>
+        <v>33273.46472702437</v>
       </c>
       <c r="C6" t="n">
-        <v>33611.91808288568</v>
+        <v>33609.56033032765</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37777.23223788465</v>
+        <v>37772.54015336125</v>
       </c>
       <c r="C7" t="n">
-        <v>38158.82044230773</v>
+        <v>38154.08096299117</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.81949205976714</v>
+        <v>52.80618880474431</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.51906525614623</v>
+        <v>71.53135950873481</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.252567591839669</v>
+        <v>6.253576594273946</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.7104788891107</v>
+        <v>516.7107037710545</v>
       </c>
       <c r="C3" t="n">
-        <v>6.36663214940867</v>
+        <v>6.365963973622738</v>
       </c>
       <c r="D3" t="n">
-        <v>3458.753989293997</v>
+        <v>3458.760258027316</v>
       </c>
       <c r="E3" t="n">
-        <v>57.61853598710635</v>
+        <v>57.6089343215674</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>283.3140598666023</v>
+        <v>283.3084431055058</v>
       </c>
       <c r="C4" t="n">
-        <v>6.743529703530912</v>
+        <v>6.742965034376975</v>
       </c>
       <c r="D4" t="n">
-        <v>2775.897096186791</v>
+        <v>2775.904143611393</v>
       </c>
       <c r="E4" t="n">
-        <v>57.61853598710635</v>
+        <v>57.6089343215674</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.5491185862827</v>
+        <v>282.5500446746497</v>
       </c>
       <c r="C5" t="n">
-        <v>6.743529703530912</v>
+        <v>6.742965034376975</v>
       </c>
       <c r="D5" t="n">
-        <v>1250.227843580672</v>
+        <v>1250.233141375977</v>
       </c>
       <c r="E5" t="n">
-        <v>57.61853598710635</v>
+        <v>57.6089343215674</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.8891674839131</v>
+        <v>161.0300925452308</v>
       </c>
       <c r="C6" t="n">
-        <v>6.743529703530912</v>
+        <v>6.742965034376975</v>
       </c>
       <c r="D6" t="n">
-        <v>682.9097947394887</v>
+        <v>683.5177983616377</v>
       </c>
       <c r="E6" t="n">
-        <v>57.61853598710635</v>
+        <v>57.6089343215674</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.1769091011915</v>
+        <v>154.3066511135408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5319213609374099</v>
+        <v>0.5337332649576266</v>
       </c>
       <c r="D7" t="n">
-        <v>650.2271491744993</v>
+        <v>650.788543786394</v>
       </c>
       <c r="E7" t="n">
-        <v>57.61853598710635</v>
+        <v>57.6089343215674</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.8627534094076</v>
+        <v>168.0029932059518</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5257856432703458</v>
+        <v>0.5263351560701151</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.476421943606</v>
+        <v>2783.661660732113</v>
       </c>
       <c r="E8" t="n">
-        <v>13.68247367834363</v>
+        <v>13.66469868499592</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.1769089862102</v>
+        <v>154.3066509983103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5319213609374099</v>
+        <v>0.5337332649576266</v>
       </c>
       <c r="D9" t="n">
-        <v>2750.858146485005</v>
+        <v>2751.00859487492</v>
       </c>
       <c r="E9" t="n">
-        <v>13.68247367834363</v>
+        <v>13.66469868499592</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.1769091011915</v>
+        <v>154.3066511135408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5319213609374099</v>
+        <v>0.5337332649576266</v>
       </c>
       <c r="D10" t="n">
-        <v>654.6869991137517</v>
+        <v>655.0798373415134</v>
       </c>
       <c r="E10" t="n">
-        <v>71.30100966544998</v>
+        <v>71.27363300656332</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.1769091011915</v>
+        <v>154.3066511135408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5319213609374099</v>
+        <v>0.5337332649576266</v>
       </c>
       <c r="D11" t="n">
-        <v>654.6869991137517</v>
+        <v>655.0798373415134</v>
       </c>
       <c r="E11" t="n">
-        <v>75.43494628006903</v>
+        <v>75.39787235624866</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5319213609374099</v>
+        <v>0.5337332649576266</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6102853587956</v>
+        <v>251.6118068192239</v>
       </c>
       <c r="E12" t="n">
-        <v>75.44182540169764</v>
+        <v>75.40226738170324</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.36958658236381</v>
+        <v>54.37962929889619</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>228.1993504889992</v>
+        <v>228.2413429931415</v>
       </c>
       <c r="E13" t="n">
-        <v>71.29776159496848</v>
+        <v>71.27506833434271</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.6639238199777</v>
+        <v>53.67572831105178</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>225.2487893895381</v>
+        <v>225.2981456276898</v>
       </c>
       <c r="E14" t="n">
-        <v>59.48090185508079</v>
+        <v>59.45869148380395</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>88.27717832427055</v>
+        <v>88.28871689380043</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06571312440787139</v>
+        <v>0.06574224300859884</v>
       </c>
       <c r="D15" t="n">
-        <v>369.7923526425029</v>
+        <v>369.8408799426358</v>
       </c>
       <c r="E15" t="n">
-        <v>55.02971149075188</v>
+        <v>55.02892043640468</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.13808289711221</v>
+        <v>56.14014767447577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06571312314095357</v>
+        <v>0.06574118011675537</v>
       </c>
       <c r="D16" t="n">
-        <v>235.0596503111888</v>
+        <v>235.0683120257297</v>
       </c>
       <c r="E16" t="n">
-        <v>55.02903491626289</v>
+        <v>55.02843353003124</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>580.1072209713626</v>
+        <v>580.1132921236062</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.076636665009</v>
+        <v>73.0774014536043</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.88935619468583</v>
+        <v>71.89562599081826</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>301.0007343871496</v>
+        <v>301.026986023556</v>
       </c>
       <c r="E19" t="n">
-        <v>73.076636665009</v>
+        <v>73.0774014536043</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.59313869078</v>
+        <v>106.5913060620262</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1277241484802027</v>
+        <v>0.1277125976056498</v>
       </c>
       <c r="D20" t="n">
-        <v>2673.80107414067</v>
+        <v>2673.862631986583</v>
       </c>
       <c r="E20" t="n">
-        <v>16.97642910696329</v>
+        <v>16.96416995689204</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>105.1037478383896</v>
+        <v>105.1011335611107</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1213379410561925</v>
+        <v>0.1213269677253674</v>
       </c>
       <c r="D21" t="n">
-        <v>440.7122030587711</v>
+        <v>440.7011579065085</v>
       </c>
       <c r="E21" t="n">
-        <v>16.97642910696329</v>
+        <v>16.96416995689204</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.87078357070921</v>
+        <v>85.8816012618756</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>359.5409708105595</v>
+        <v>359.5862644834731</v>
       </c>
       <c r="E22" t="n">
-        <v>580.1072209713626</v>
+        <v>580.1132921236062</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>424.23724557427</v>
       </c>
       <c r="E23" t="n">
-        <v>580.1072209713626</v>
+        <v>580.1132921236062</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.92196111872408</v>
+        <v>50.92275093067155</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>580.1072209713626</v>
+        <v>580.1132921236062</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.61876608797553</v>
+        <v>89.63040310139274</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06917170990302252</v>
+        <v>0.06920236106168298</v>
       </c>
       <c r="D25" t="n">
-        <v>2591.442480728818</v>
+        <v>2591.565796473417</v>
       </c>
       <c r="E25" t="n">
-        <v>38.05324112075023</v>
+        <v>38.06426692996812</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>513.8056016086583</v>
+        <v>513.805200338909</v>
       </c>
       <c r="C26" t="n">
-        <v>5.738355851370735</v>
+        <v>5.737698291606237</v>
       </c>
       <c r="D26" t="n">
-        <v>3458.753989293997</v>
+        <v>3458.760258027316</v>
       </c>
       <c r="E26" t="n">
-        <v>45.79920322391887</v>
+        <v>45.79389750014821</v>
       </c>
       <c r="F26" t="n">
-        <v>6.947977323182641</v>
+        <v>6.948035968566925</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200.1462051219962</v>
+        <v>200.1286981031805</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3906265070059356</v>
+        <v>0.3904959785802933</v>
       </c>
       <c r="D27" t="n">
-        <v>2861.704050631969</v>
+        <v>2861.673954081586</v>
       </c>
       <c r="E27" t="n">
-        <v>45.79920322391887</v>
+        <v>45.79389750014821</v>
       </c>
       <c r="F27" t="n">
-        <v>7.184656612509527</v>
+        <v>7.184744076199787</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.206435686013</v>
+        <v>165.2808985317698</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4439045442625247</v>
+        <v>0.4436356780418095</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.476421943606</v>
+        <v>2783.661660732113</v>
       </c>
       <c r="E28" t="n">
-        <v>13.68247367834363</v>
+        <v>13.66469868499592</v>
       </c>
       <c r="F28" t="n">
-        <v>6.955419713756195</v>
+        <v>6.956112518419465</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>191.5752549909678</v>
+        <v>191.5888899051372</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3906265070059356</v>
+        <v>0.3904959785802933</v>
       </c>
       <c r="D29" t="n">
-        <v>2843.709476063963</v>
+        <v>2843.745268395387</v>
       </c>
       <c r="E29" t="n">
-        <v>59.48167690226249</v>
+        <v>59.45859618514413</v>
       </c>
       <c r="F29" t="n">
-        <v>7.146288061794996</v>
+        <v>7.146515868688991</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>106.5928258151559</v>
+        <v>106.5912994549386</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1277228013313431</v>
+        <v>0.1277161176220002</v>
       </c>
       <c r="D30" t="n">
-        <v>2673.79988225911</v>
+        <v>2673.862606808281</v>
       </c>
       <c r="E30" t="n">
-        <v>59.48167690226249</v>
+        <v>59.45859618514413</v>
       </c>
       <c r="F30" t="n">
-        <v>7.24504649456413</v>
+        <v>7.245235260125448</v>
       </c>
       <c r="G30" t="n">
-        <v>99.46179170335799</v>
+        <v>99.4646993256666</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.61898065997019</v>
+        <v>89.63024176503495</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06917227496963811</v>
+        <v>0.06920193603448707</v>
       </c>
       <c r="D31" t="n">
-        <v>2591.44374879925</v>
+        <v>2591.565027615999</v>
       </c>
       <c r="E31" t="n">
-        <v>42.50520653226084</v>
+        <v>42.49394267870757</v>
       </c>
       <c r="F31" t="n">
-        <v>7.297042159427951</v>
+        <v>7.297186763074735</v>
       </c>
       <c r="G31" t="n">
-        <v>97.04549638772482</v>
+        <v>97.04996588866958</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.51336361326827</v>
+        <v>49.57116349267972</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008542162172947494</v>
+        <v>0.008505281083720437</v>
       </c>
       <c r="D32" t="n">
-        <v>2591.44374879925</v>
+        <v>2591.565027615999</v>
       </c>
       <c r="E32" t="n">
-        <v>4.451866938817908</v>
+        <v>4.430257953772717</v>
       </c>
       <c r="F32" t="n">
-        <v>8.244964964293022</v>
+        <v>8.247332343608614</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.8272677408379</v>
+        <v>45.98132777172634</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002747304178824862</v>
+        <v>0.002745894827665469</v>
       </c>
       <c r="D33" t="n">
-        <v>2586.084802026629</v>
+        <v>2586.37561781333</v>
       </c>
       <c r="E33" t="n">
-        <v>4.451866938817908</v>
+        <v>4.430257953772717</v>
       </c>
       <c r="F33" t="n">
-        <v>8.750933506533892</v>
+        <v>8.752081598956332</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.62148305296637</v>
+        <v>22.61303098543402</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002747304178824862</v>
+        <v>0.002745894827665469</v>
       </c>
       <c r="D34" t="n">
-        <v>94.88153372982053</v>
+        <v>94.84617964086716</v>
       </c>
       <c r="E34" t="n">
-        <v>4.451866938817908</v>
+        <v>4.430257953772717</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.64274222470459</v>
+        <v>24.63428388994117</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>103.9778224815589</v>
+        <v>103.9424688653375</v>
       </c>
       <c r="E35" t="n">
-        <v>4.451866938817908</v>
+        <v>4.430257953772717</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.7102537013866</v>
+        <v>501.7148736835885</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.014607311552</v>
+        <v>3472.024802012389</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16422729666915</v>
+        <v>10.16419244650944</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>243.0511841434224</v>
       </c>
       <c r="E41" t="n">
-        <v>11.81685973988769</v>
+        <v>11.81637685053876</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.7102537013866</v>
+        <v>516.7148736835885</v>
       </c>
       <c r="C42" t="n">
-        <v>6.366734718784453</v>
+        <v>6.365502345836216</v>
       </c>
       <c r="D42" t="n">
-        <v>3458.750232927272</v>
+        <v>3458.775343722345</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81685973988769</v>
+        <v>11.81637685053876</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9739808963834</v>
+        <v>11.97393984110842</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762721576400581</v>
+        <v>4.762705246422635</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944168</v>
+        <v>0.05094889585944169</v>
       </c>
       <c r="K6" t="n">
         <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.88312618964018</v>
+        <v>1.885497477219071</v>
       </c>
       <c r="C2" t="n">
-        <v>2.136815758802556</v>
+        <v>2.139831872307591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8812768166289917</v>
+        <v>0.8811428138911466</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2078228370429032</v>
+        <v>0.2074755120764697</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>124.7519245788901</v>
+        <v>124.7145130668581</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.20815555198849</v>
+        <v>31.2050213338784</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.2145831031226</v>
+        <v>6.214503724142036</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.97534081677917</v>
+        <v>40.96403261264524</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.34441147561052</v>
+        <v>27.34290900163312</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849206436076598</v>
+        <v>0.8492043276165249</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.10650756129493</v>
+        <v>10.10098457416524</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.81918725057937</v>
+        <v>0.8192229294477018</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.5005644619098</v>
+        <v>3.497148612793219</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8136466610998089</v>
+        <v>0.8136629476255197</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0238573179639145</v>
+        <v>0.02299042405366317</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03421101700418773</v>
+        <v>0.03323735476800569</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04049546715980513</v>
+        <v>0.04029890768652666</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04537885492855442</v>
+        <v>0.0451590352806478</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923862716139971</v>
+        <v>0.8923775150660964</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39341.25882990022</v>
+        <v>39337.24927108611</v>
       </c>
       <c r="C2" t="n">
-        <v>39738.64528272749</v>
+        <v>39734.5952233193</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87900.10904108502</v>
+        <v>87886.64839486218</v>
       </c>
       <c r="C3" t="n">
-        <v>88787.98893038891</v>
+        <v>88774.39231804261</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32686.00031262173</v>
+        <v>32647.21154252293</v>
       </c>
       <c r="C4" t="n">
-        <v>33016.16193194114</v>
+        <v>32976.98135608376</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.2927216119904</v>
+        <v>446.174701171422</v>
       </c>
       <c r="C5" t="n">
-        <v>450.8007289010004</v>
+        <v>450.6815163347697</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28425.58043146754</v>
+        <v>28394.08099227343</v>
       </c>
       <c r="C6" t="n">
-        <v>28712.70750653287</v>
+        <v>28680.88989118528</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30406.06992952617</v>
+        <v>30420.63119505241</v>
       </c>
       <c r="C7" t="n">
-        <v>30713.20194901633</v>
+        <v>30727.91029803273</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.53077616037583</v>
+        <v>37.50489347960317</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.8875070936442</v>
+        <v>84.91275255005466</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.340068360095404</v>
+        <v>7.342063579460984</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34630.76027725622</v>
+        <v>34630.74515941903</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3368.704347912787</v>
+        <v>3367.463357547565</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22625.7786532492</v>
+        <v>22625.59745517692</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.788960924273</v>
+        <v>7875.761957149653</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.901057517681</v>
+        <v>5689.881548512738</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.11715838072</v>
+        <v>21121.04474025343</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38055.51152473546</v>
+        <v>38054.15160346339</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7530600300548722</v>
+        <v>0.7528341969507313</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4343,7 +4343,7 @@
         <v>948.6294601883625</v>
       </c>
       <c r="E3" t="n">
-        <v>442.9323093094343</v>
+        <v>442.8550008693169</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -4377,7 +4377,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.62893558175957</v>
+        <v>13.62882643471572</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -4402,31 +4402,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>542.2491582011405</v>
+        <v>542.2505823352293</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>966.0176572152545</v>
+        <v>966.0204668979961</v>
       </c>
       <c r="E5" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="6">
@@ -4436,31 +4436,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.2365635784892</v>
+        <v>466.2328538418922</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>878.9786329279481</v>
+        <v>878.9755534823565</v>
       </c>
       <c r="E6" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="7">
@@ -4470,31 +4470,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.324991585776</v>
+        <v>291.3182575897686</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>684.5074860141347</v>
+        <v>684.5012106730196</v>
       </c>
       <c r="E7" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="8">
@@ -4504,31 +4504,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.4469083692567</v>
+        <v>224.508616534905</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.192627270902</v>
+        <v>612.2599189040561</v>
       </c>
       <c r="E8" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="9">
@@ -4538,31 +4538,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.5272316048067</v>
+        <v>223.5890387401669</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.2052444521776</v>
+        <v>611.2726297836584</v>
       </c>
       <c r="E9" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="10">
@@ -4572,31 +4572,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.6166718915316</v>
+        <v>164.7347676433306</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>548.3161844896405</v>
+        <v>548.4426056389412</v>
       </c>
       <c r="E10" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="11">
@@ -4606,31 +4606,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.9578688212826</v>
+        <v>101.0356211087404</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.0454682545474</v>
+        <v>481.1282596313072</v>
       </c>
       <c r="E11" t="n">
-        <v>456.5612448911938</v>
+        <v>456.4838273040327</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781620797156332</v>
+        <v>0.7781617345075388</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202253797987073</v>
+        <v>0.1202248187548612</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03194644052370581</v>
+        <v>0.03194673866682162</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06310064579572722</v>
+        <v>0.06310124333572587</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565454166226307</v>
+        <v>0.006565464735052552</v>
       </c>
     </row>
     <row r="12">
@@ -4649,7 +4649,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.91899128724652</v>
+        <v>12.91888782577662</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4673,7 +4673,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7099442945130603</v>
+        <v>0.7099386089391153</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4756,16 +4756,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505.3728013505911</v>
+        <v>505.377884986466</v>
       </c>
       <c r="C3" t="n">
-        <v>7.730974373680167</v>
+        <v>7.730002544085405</v>
       </c>
       <c r="D3" t="n">
-        <v>3415.924590398811</v>
+        <v>3415.948948429024</v>
       </c>
       <c r="E3" t="n">
-        <v>63.82350645480625</v>
+        <v>63.82899017569645</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.931421171518</v>
+        <v>295.9229414572723</v>
       </c>
       <c r="C4" t="n">
-        <v>8.106375324117543</v>
+        <v>8.105393869774977</v>
       </c>
       <c r="D4" t="n">
-        <v>2757.091773110198</v>
+        <v>2757.106548064892</v>
       </c>
       <c r="E4" t="n">
-        <v>63.82350645480625</v>
+        <v>63.82899017569645</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4798,16 +4798,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.8882864861739</v>
+        <v>294.877646717474</v>
       </c>
       <c r="C5" t="n">
-        <v>8.106375324117543</v>
+        <v>8.105393869774977</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.532112947809</v>
+        <v>1316.47346874925</v>
       </c>
       <c r="E5" t="n">
-        <v>63.82350645480625</v>
+        <v>63.82899017569645</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4819,16 +4819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.8090508111171</v>
+        <v>162.8013946341853</v>
       </c>
       <c r="C6" t="n">
-        <v>8.106375324117543</v>
+        <v>8.105393869774977</v>
       </c>
       <c r="D6" t="n">
-        <v>691.9979449852876</v>
+        <v>691.9643159322602</v>
       </c>
       <c r="E6" t="n">
-        <v>63.82350645480625</v>
+        <v>63.82899017569645</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4840,16 +4840,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.4585155260415</v>
+        <v>161.4510715370641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6415098136817835</v>
+        <v>0.6413892768569127</v>
       </c>
       <c r="D7" t="n">
-        <v>681.8133928723515</v>
+        <v>681.7810177954869</v>
       </c>
       <c r="E7" t="n">
-        <v>63.82350645480625</v>
+        <v>63.82899017569645</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4861,16 +4861,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.7160072619056</v>
+        <v>174.7114099540667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6347447623258523</v>
+        <v>0.6346366440352</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.493437933137</v>
+        <v>2791.49106459068</v>
       </c>
       <c r="E8" t="n">
-        <v>15.89651469991978</v>
+        <v>15.89426642084975</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4882,16 +4882,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.4585153965855</v>
+        <v>161.4510714076238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6415098136817835</v>
+        <v>0.6413892768569127</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.034906614799</v>
+        <v>2759.026830861376</v>
       </c>
       <c r="E9" t="n">
-        <v>15.89651469991978</v>
+        <v>15.89426642084975</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4903,16 +4903,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.7142108310688</v>
+        <v>160.7097839511299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6415098136817835</v>
+        <v>0.6413892768569127</v>
       </c>
       <c r="D10" t="n">
-        <v>678.5841165376357</v>
+        <v>678.5648451029627</v>
       </c>
       <c r="E10" t="n">
-        <v>79.72002115472603</v>
+        <v>79.72325659654619</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4924,16 +4924,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.7142108310688</v>
+        <v>160.7097839511299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6415098136817835</v>
+        <v>0.6413892768569127</v>
       </c>
       <c r="D11" t="n">
-        <v>678.5841165376357</v>
+        <v>678.5648451029627</v>
       </c>
       <c r="E11" t="n">
-        <v>88.49576433926343</v>
+        <v>88.48874320421658</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4948,13 +4948,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6415098136817835</v>
+        <v>0.6413892768569127</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7023058612437</v>
+        <v>251.7022046488984</v>
       </c>
       <c r="E12" t="n">
-        <v>88.4889460348307</v>
+        <v>88.4900746157634</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4966,16 +4966,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.76016950926521</v>
+        <v>48.76307711852132</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>204.7493806354715</v>
+        <v>204.7615333502789</v>
       </c>
       <c r="E13" t="n">
-        <v>73.5156132032204</v>
+        <v>73.50283217373257</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.76016950926521</v>
+        <v>48.76307711852132</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>204.7493806354715</v>
+        <v>204.7615333502789</v>
       </c>
       <c r="E14" t="n">
-        <v>73.5156132032204</v>
+        <v>73.50283217373257</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81.74511710530521</v>
+        <v>81.75090821243828</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0508658171433304</v>
+        <v>0.05087761166719296</v>
       </c>
       <c r="D15" t="n">
-        <v>342.3402817923949</v>
+        <v>342.3646034046199</v>
       </c>
       <c r="E15" t="n">
-        <v>56.21257665209295</v>
+        <v>56.21203338031205</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -5029,16 +5029,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.92832773867815</v>
+        <v>54.92936654430514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05086559316187686</v>
+        <v>0.05087774478396162</v>
       </c>
       <c r="D16" t="n">
-        <v>229.9863254209549</v>
+        <v>229.9906811343131</v>
       </c>
       <c r="E16" t="n">
-        <v>56.21298092312477</v>
+        <v>56.21169465579383</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.20479178931771</v>
+        <v>68.20806845670946</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>285.5734632218733</v>
+        <v>285.5871826282425</v>
       </c>
       <c r="E19" t="n">
         <v>73.54563361700835</v>
@@ -5113,16 +5113,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.1420105131776</v>
+        <v>108.1402566949981</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1346557075001764</v>
+        <v>0.1346495280794579</v>
       </c>
       <c r="D20" t="n">
-        <v>2642.079523836877</v>
+        <v>2642.098048706376</v>
       </c>
       <c r="E20" t="n">
-        <v>24.30792834412248</v>
+        <v>24.30153831763437</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5134,16 +5134,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>106.6384969769598</v>
+        <v>106.6371580723721</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1279229221251675</v>
+        <v>0.127917051675485</v>
       </c>
       <c r="D21" t="n">
-        <v>447.198021502124</v>
+        <v>447.1923619107748</v>
       </c>
       <c r="E21" t="n">
-        <v>24.30792834412248</v>
+        <v>24.30153831763437</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5155,13 +5155,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>79.7149790693197</v>
+        <v>79.72042119216843</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>333.7666173632416</v>
+        <v>333.7894035316093</v>
       </c>
       <c r="E22" t="n">
         <v>583.8302784475239</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.45781317402336</v>
+        <v>50.45822593880856</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5218,16 +5218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.03162332241277</v>
+        <v>83.03746268818873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05354296541403201</v>
+        <v>0.05355538070230838</v>
       </c>
       <c r="D25" t="n">
-        <v>2526.749959773114</v>
+        <v>2526.794064383943</v>
       </c>
       <c r="E25" t="n">
-        <v>31.90454270858824</v>
+        <v>31.91059064728054</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5239,19 +5239,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502.4207327979079</v>
+        <v>502.4253391234586</v>
       </c>
       <c r="C26" t="n">
-        <v>7.114412992732142</v>
+        <v>7.113288664455558</v>
       </c>
       <c r="D26" t="n">
-        <v>3415.924590398811</v>
+        <v>3415.948948429024</v>
       </c>
       <c r="E26" t="n">
-        <v>57.61853598710635</v>
+        <v>57.6089343215674</v>
       </c>
       <c r="F26" t="n">
-        <v>6.798734631448463</v>
+        <v>6.798834932795303</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5264,19 +5264,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.8813269571382</v>
+        <v>187.8873354577231</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4705324980442047</v>
+        <v>0.470464338553076</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.380386369959</v>
+        <v>2831.397268520879</v>
       </c>
       <c r="E27" t="n">
-        <v>57.61853598710635</v>
+        <v>57.6089343215674</v>
       </c>
       <c r="F27" t="n">
-        <v>7.035918859659736</v>
+        <v>7.036020450172535</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5289,19 +5289,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.8987749049582</v>
+        <v>171.895001041906</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5424480480892592</v>
+        <v>0.5423595476875336</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.493437933137</v>
+        <v>2791.49106459068</v>
       </c>
       <c r="E28" t="n">
-        <v>15.89651469991978</v>
+        <v>15.89426642084975</v>
       </c>
       <c r="F28" t="n">
-        <v>6.884378257496106</v>
+        <v>6.884445314540852</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5314,19 +5314,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.8962321026128</v>
+        <v>183.9001367427673</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4705324980442047</v>
+        <v>0.470464338553076</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.755438740388</v>
+        <v>2822.767986656895</v>
       </c>
       <c r="E29" t="n">
-        <v>73.51505068702613</v>
+        <v>73.50320074241715</v>
       </c>
       <c r="F29" t="n">
-        <v>7.017129518786956</v>
+        <v>7.01722187003165</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5339,22 +5339,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.1416413049431</v>
+        <v>108.1403980612994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.134655070524767</v>
+        <v>0.134649384234928</v>
       </c>
       <c r="D30" t="n">
-        <v>2642.078435170642</v>
+        <v>2642.098465652984</v>
       </c>
       <c r="E30" t="n">
-        <v>73.51505068702613</v>
+        <v>73.50320074241715</v>
       </c>
       <c r="F30" t="n">
-        <v>7.138048119444973</v>
+        <v>7.138119383736001</v>
       </c>
       <c r="G30" t="n">
-        <v>97.934863483436</v>
+        <v>97.9358480879564</v>
       </c>
     </row>
     <row r="31">
@@ -5364,22 +5364,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.03078851765684</v>
+        <v>83.03790146382676</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05354119070226218</v>
+        <v>0.05355631369661265</v>
       </c>
       <c r="D31" t="n">
-        <v>2526.747121791198</v>
+        <v>2526.79557603915</v>
       </c>
       <c r="E31" t="n">
-        <v>49.20701674352142</v>
+        <v>49.20175800938564</v>
       </c>
       <c r="F31" t="n">
-        <v>7.229146954392817</v>
+        <v>7.2291607788243</v>
       </c>
       <c r="G31" t="n">
-        <v>94.72597827388218</v>
+        <v>94.72752990434739</v>
       </c>
     </row>
     <row r="32">
@@ -5389,22 +5389,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.49005387064886</v>
+        <v>70.47468711607678</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03186815128431639</v>
+        <v>0.03184704738169738</v>
       </c>
       <c r="D32" t="n">
-        <v>2526.747121791198</v>
+        <v>2526.79557603915</v>
       </c>
       <c r="E32" t="n">
-        <v>17.30263228009562</v>
+        <v>17.29113751793874</v>
       </c>
       <c r="F32" t="n">
-        <v>7.45519757112576</v>
+        <v>7.455629060193206</v>
       </c>
       <c r="G32" t="n">
-        <v>95.70347998540548</v>
+        <v>95.70675405007795</v>
       </c>
     </row>
     <row r="33">
@@ -5414,22 +5414,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.11280002758781</v>
+        <v>27.10918159795</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003591812827136984</v>
+        <v>0.003591050432003306</v>
       </c>
       <c r="D33" t="n">
-        <v>2381.684072846398</v>
+        <v>2381.852040481538</v>
       </c>
       <c r="E33" t="n">
-        <v>17.30263228009562</v>
+        <v>17.29113751793874</v>
       </c>
       <c r="F33" t="n">
-        <v>7.950201128562611</v>
+        <v>7.950851567035159</v>
       </c>
       <c r="G33" t="n">
-        <v>93.07884746499646</v>
+        <v>93.08603372801173</v>
       </c>
     </row>
     <row r="34">
@@ -5439,16 +5439,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.11280002758781</v>
+        <v>27.10918159795</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003591812827136984</v>
+        <v>0.003591050432003306</v>
       </c>
       <c r="D34" t="n">
-        <v>113.6636431232859</v>
+        <v>113.6485143897723</v>
       </c>
       <c r="E34" t="n">
-        <v>17.30263228009562</v>
+        <v>17.29113751793874</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5460,16 +5460,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.13701818972231</v>
+        <v>29.13339767580226</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>122.7593184981461</v>
+        <v>122.7441906398447</v>
       </c>
       <c r="E35" t="n">
-        <v>17.30263228009562</v>
+        <v>17.29113751793874</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5565,16 +5565,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.7102537013866</v>
+        <v>501.7148736835885</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.014607311552</v>
+        <v>3472.024802012389</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16422729666915</v>
+        <v>10.16419244650944</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5607,16 +5607,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.7102537013866</v>
+        <v>516.7148736835885</v>
       </c>
       <c r="C42" t="n">
-        <v>6.366734718784453</v>
+        <v>6.365502345836216</v>
       </c>
       <c r="D42" t="n">
-        <v>3458.750232927272</v>
+        <v>3458.775343722345</v>
       </c>
       <c r="E42" t="n">
-        <v>11.81685973988769</v>
+        <v>11.81637685053876</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
